--- a/LLD.xlsx
+++ b/LLD.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" firstSheet="4" activeTab="7"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" firstSheet="3" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Hardware Summary" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
     <sheet name="VIOS SEA config" sheetId="8" r:id="rId8"/>
     <sheet name="Gold Image" sheetId="10" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1426" uniqueCount="390">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1421" uniqueCount="387">
   <si>
     <t>P780 Systems</t>
   </si>
@@ -965,12 +965,6 @@
     <t>Additional Software</t>
   </si>
   <si>
-    <t>PowerVM Network stack</t>
-  </si>
-  <si>
-    <t>The folloing on vios virtual Ethernets and lpars:</t>
-  </si>
-  <si>
     <t xml:space="preserve">• chdev -l entx -a min_buf_tiny=4096 -a max_buf_tiny=4096 –P </t>
   </si>
   <si>
@@ -1143,9 +1137,6 @@
   </si>
   <si>
     <t>VLAN's-veth1</t>
-  </si>
-  <si>
-    <t>trunck-veth1</t>
   </si>
   <si>
     <t>Priority-veth1</t>
@@ -1220,7 +1211,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="0.0"/>
@@ -2794,12 +2785,54 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="44" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="15" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="20" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="30" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="21" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="7" borderId="20" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="7" borderId="30" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="7" borderId="21" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="7" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="7" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="20" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2817,48 +2850,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="21" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="7" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="7" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="7" borderId="20" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="7" borderId="30" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="7" borderId="21" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="20" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="30" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="21" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -5614,7 +5605,7 @@
       <c r="Z1" s="35" t="s">
         <v>80</v>
       </c>
-      <c r="AA1" s="239" t="s">
+      <c r="AA1" s="222" t="s">
         <v>81</v>
       </c>
     </row>
@@ -6967,13 +6958,13 @@
         <f t="shared" ref="S2:S3" si="0">IF(R2&lt;20000, R2*2, R2*1.5)</f>
         <v>16</v>
       </c>
-      <c r="T2" s="222"/>
-      <c r="U2" s="222"/>
-      <c r="V2" s="222"/>
+      <c r="T2" s="224"/>
+      <c r="U2" s="224"/>
+      <c r="V2" s="224"/>
       <c r="W2" s="62"/>
     </row>
     <row r="3" spans="1:23" s="63" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="240" t="s">
+      <c r="A3" s="223" t="s">
         <v>117</v>
       </c>
       <c r="B3" s="84" t="s">
@@ -7037,13 +7028,13 @@
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="T3" s="222"/>
-      <c r="U3" s="222"/>
-      <c r="V3" s="222"/>
+      <c r="T3" s="224"/>
+      <c r="U3" s="224"/>
+      <c r="V3" s="224"/>
       <c r="W3" s="62"/>
     </row>
     <row r="4" spans="1:23" s="63" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="240" t="s">
+      <c r="A4" s="223" t="s">
         <v>117</v>
       </c>
       <c r="B4" s="96" t="s">
@@ -7102,13 +7093,13 @@
       <c r="S4" s="83">
         <v>128</v>
       </c>
-      <c r="T4" s="222"/>
-      <c r="U4" s="222"/>
-      <c r="V4" s="222"/>
+      <c r="T4" s="224"/>
+      <c r="U4" s="224"/>
+      <c r="V4" s="224"/>
       <c r="W4" s="62"/>
     </row>
     <row r="5" spans="1:23" s="63" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="240" t="s">
+      <c r="A5" s="223" t="s">
         <v>117</v>
       </c>
       <c r="B5" s="96" t="s">
@@ -7167,13 +7158,13 @@
       <c r="S5" s="83">
         <v>384</v>
       </c>
-      <c r="T5" s="222"/>
-      <c r="U5" s="222"/>
-      <c r="V5" s="222"/>
+      <c r="T5" s="224"/>
+      <c r="U5" s="224"/>
+      <c r="V5" s="224"/>
       <c r="W5" s="62"/>
     </row>
     <row r="6" spans="1:23" s="63" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="240" t="s">
+      <c r="A6" s="223" t="s">
         <v>117</v>
       </c>
       <c r="B6" s="96" t="s">
@@ -7232,13 +7223,13 @@
       <c r="S6" s="83">
         <v>256</v>
       </c>
-      <c r="T6" s="222"/>
-      <c r="U6" s="222"/>
-      <c r="V6" s="222"/>
+      <c r="T6" s="224"/>
+      <c r="U6" s="224"/>
+      <c r="V6" s="224"/>
       <c r="W6" s="62"/>
     </row>
     <row r="7" spans="1:23" s="63" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="240" t="s">
+      <c r="A7" s="223" t="s">
         <v>117</v>
       </c>
       <c r="B7" s="96" t="s">
@@ -7296,13 +7287,13 @@
       <c r="S7" s="83">
         <v>128</v>
       </c>
-      <c r="T7" s="222"/>
-      <c r="U7" s="222"/>
-      <c r="V7" s="222"/>
+      <c r="T7" s="224"/>
+      <c r="U7" s="224"/>
+      <c r="V7" s="224"/>
       <c r="W7" s="62"/>
     </row>
     <row r="8" spans="1:23" s="63" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="240" t="s">
+      <c r="A8" s="223" t="s">
         <v>117</v>
       </c>
       <c r="B8" s="103" t="s">
@@ -7361,13 +7352,13 @@
       <c r="S8" s="120">
         <v>64</v>
       </c>
-      <c r="T8" s="222"/>
-      <c r="U8" s="222"/>
-      <c r="V8" s="222"/>
+      <c r="T8" s="224"/>
+      <c r="U8" s="224"/>
+      <c r="V8" s="224"/>
       <c r="W8" s="62"/>
     </row>
     <row r="9" spans="1:23" s="63" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="240" t="s">
+      <c r="A9" s="223" t="s">
         <v>117</v>
       </c>
       <c r="B9" s="96" t="s">
@@ -7428,13 +7419,13 @@
       <c r="S9" s="83">
         <v>384</v>
       </c>
-      <c r="T9" s="222"/>
-      <c r="U9" s="222"/>
-      <c r="V9" s="222"/>
+      <c r="T9" s="224"/>
+      <c r="U9" s="224"/>
+      <c r="V9" s="224"/>
       <c r="W9" s="62"/>
     </row>
     <row r="10" spans="1:23" s="63" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="240" t="s">
+      <c r="A10" s="223" t="s">
         <v>121</v>
       </c>
       <c r="B10" s="84" t="s">
@@ -7498,19 +7489,19 @@
         <f t="shared" ref="S10:S11" si="7">IF(R10&lt;20000, R10*2, R10*1.5)</f>
         <v>16</v>
       </c>
-      <c r="T10" s="223">
+      <c r="T10" s="225">
         <v>0</v>
       </c>
-      <c r="U10" s="222" t="s">
+      <c r="U10" s="224" t="s">
         <v>89</v>
       </c>
-      <c r="V10" s="222">
+      <c r="V10" s="224">
         <v>34</v>
       </c>
       <c r="W10" s="62"/>
     </row>
     <row r="11" spans="1:23" s="63" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="240" t="s">
+      <c r="A11" s="223" t="s">
         <v>121</v>
       </c>
       <c r="B11" s="84" t="s">
@@ -7574,13 +7565,13 @@
         <f t="shared" si="7"/>
         <v>16</v>
       </c>
-      <c r="T11" s="223"/>
-      <c r="U11" s="222"/>
-      <c r="V11" s="222"/>
+      <c r="T11" s="225"/>
+      <c r="U11" s="224"/>
+      <c r="V11" s="224"/>
       <c r="W11" s="62"/>
     </row>
     <row r="12" spans="1:23" s="63" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="240" t="s">
+      <c r="A12" s="223" t="s">
         <v>121</v>
       </c>
       <c r="B12" s="96" t="s">
@@ -7639,13 +7630,13 @@
       <c r="S12" s="83">
         <v>128</v>
       </c>
-      <c r="T12" s="223"/>
-      <c r="U12" s="222"/>
-      <c r="V12" s="222"/>
+      <c r="T12" s="225"/>
+      <c r="U12" s="224"/>
+      <c r="V12" s="224"/>
       <c r="W12" s="62"/>
     </row>
     <row r="13" spans="1:23" s="63" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="240" t="s">
+      <c r="A13" s="223" t="s">
         <v>121</v>
       </c>
       <c r="B13" s="96" t="s">
@@ -7704,13 +7695,13 @@
       <c r="S13" s="83">
         <v>384</v>
       </c>
-      <c r="T13" s="223"/>
-      <c r="U13" s="222"/>
-      <c r="V13" s="222"/>
+      <c r="T13" s="225"/>
+      <c r="U13" s="224"/>
+      <c r="V13" s="224"/>
       <c r="W13" s="62"/>
     </row>
     <row r="14" spans="1:23" s="63" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="240" t="s">
+      <c r="A14" s="223" t="s">
         <v>121</v>
       </c>
       <c r="B14" s="96" t="s">
@@ -7769,13 +7760,13 @@
       <c r="S14" s="83">
         <v>256</v>
       </c>
-      <c r="T14" s="223"/>
-      <c r="U14" s="222"/>
-      <c r="V14" s="222"/>
+      <c r="T14" s="225"/>
+      <c r="U14" s="224"/>
+      <c r="V14" s="224"/>
       <c r="W14" s="62"/>
     </row>
     <row r="15" spans="1:23" s="63" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="240" t="s">
+      <c r="A15" s="223" t="s">
         <v>121</v>
       </c>
       <c r="B15" s="96" t="s">
@@ -7833,13 +7824,13 @@
       <c r="S15" s="83">
         <v>128</v>
       </c>
-      <c r="T15" s="223"/>
-      <c r="U15" s="222"/>
-      <c r="V15" s="222"/>
+      <c r="T15" s="225"/>
+      <c r="U15" s="224"/>
+      <c r="V15" s="224"/>
       <c r="W15" s="62"/>
     </row>
     <row r="16" spans="1:23" s="63" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="240" t="s">
+      <c r="A16" s="223" t="s">
         <v>121</v>
       </c>
       <c r="B16" s="103" t="s">
@@ -7898,13 +7889,13 @@
       <c r="S16" s="120">
         <v>64</v>
       </c>
-      <c r="T16" s="223"/>
-      <c r="U16" s="222"/>
-      <c r="V16" s="222"/>
+      <c r="T16" s="225"/>
+      <c r="U16" s="224"/>
+      <c r="V16" s="224"/>
       <c r="W16" s="62"/>
     </row>
     <row r="17" spans="1:23" s="63" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="240" t="s">
+      <c r="A17" s="223" t="s">
         <v>121</v>
       </c>
       <c r="B17" s="96" t="s">
@@ -7963,14 +7954,14 @@
       <c r="S17" s="83">
         <v>384</v>
       </c>
-      <c r="T17" s="223"/>
-      <c r="U17" s="222"/>
-      <c r="V17" s="222"/>
+      <c r="T17" s="225"/>
+      <c r="U17" s="224"/>
+      <c r="V17" s="224"/>
       <c r="W17" s="62"/>
     </row>
     <row r="18" spans="1:23" s="63" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A18" s="122" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B18" s="96" t="s">
         <v>125</v>
@@ -11910,18 +11901,18 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AW17"/>
+  <dimension ref="A1:AV17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView topLeftCell="AA1" workbookViewId="0">
+      <selection activeCell="Q1" sqref="Q1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="49" max="49" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="8.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:49" s="220" customFormat="1" ht="45" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:48" s="220" customFormat="1" ht="45" x14ac:dyDescent="0.2">
       <c r="A1" s="216" t="s">
         <v>263</v>
       </c>
@@ -11956,1359 +11947,1345 @@
         <v>272</v>
       </c>
       <c r="L1" s="217" t="s">
+        <v>360</v>
+      </c>
+      <c r="M1" s="218" t="s">
+        <v>361</v>
+      </c>
+      <c r="N1" s="218" t="s">
         <v>362</v>
       </c>
-      <c r="M1" s="218" t="s">
+      <c r="O1" s="218" t="s">
         <v>363</v>
       </c>
-      <c r="N1" s="218" t="s">
+      <c r="P1" s="218" t="s">
         <v>364</v>
       </c>
-      <c r="O1" s="218" t="s">
+      <c r="Q1" s="218" t="s">
         <v>365</v>
       </c>
-      <c r="P1" s="218" t="s">
+      <c r="R1" s="219" t="s">
         <v>366</v>
       </c>
-      <c r="Q1" s="218" t="s">
+      <c r="S1" s="216" t="s">
         <v>367</v>
       </c>
-      <c r="R1" s="218" t="s">
+      <c r="T1" s="216" t="s">
         <v>368</v>
       </c>
-      <c r="S1" s="219" t="s">
+      <c r="U1" s="216" t="s">
         <v>369</v>
       </c>
-      <c r="T1" s="216" t="s">
+      <c r="V1" s="216" t="s">
         <v>370</v>
       </c>
-      <c r="U1" s="216" t="s">
+      <c r="W1" s="216" t="s">
         <v>371</v>
       </c>
-      <c r="V1" s="216" t="s">
+      <c r="X1" s="216" t="s">
         <v>372</v>
       </c>
-      <c r="W1" s="216" t="s">
+      <c r="Y1" s="217" t="s">
         <v>373</v>
       </c>
-      <c r="X1" s="216" t="s">
+      <c r="Z1" s="218" t="s">
         <v>374</v>
       </c>
-      <c r="Y1" s="216" t="s">
+      <c r="AA1" s="218" t="s">
         <v>375</v>
       </c>
-      <c r="Z1" s="217" t="s">
+      <c r="AB1" s="218" t="s">
         <v>376</v>
       </c>
-      <c r="AA1" s="218" t="s">
+      <c r="AC1" s="218" t="s">
         <v>377</v>
       </c>
-      <c r="AB1" s="218" t="s">
+      <c r="AD1" s="218" t="s">
         <v>378</v>
       </c>
-      <c r="AC1" s="218" t="s">
+      <c r="AE1" s="218" t="s">
         <v>379</v>
       </c>
-      <c r="AD1" s="218" t="s">
+      <c r="AF1" s="219" t="s">
         <v>380</v>
       </c>
-      <c r="AE1" s="218" t="s">
+      <c r="AG1" s="216" t="s">
         <v>381</v>
       </c>
-      <c r="AF1" s="218" t="s">
+      <c r="AH1" s="216" t="s">
         <v>382</v>
       </c>
-      <c r="AG1" s="219" t="s">
+      <c r="AI1" s="216" t="s">
         <v>383</v>
       </c>
-      <c r="AH1" s="216" t="s">
+      <c r="AJ1" s="216" t="s">
         <v>384</v>
       </c>
-      <c r="AI1" s="216" t="s">
+      <c r="AK1" s="216" t="s">
         <v>385</v>
       </c>
-      <c r="AJ1" s="216" t="s">
+      <c r="AL1" s="216" t="s">
         <v>386</v>
       </c>
-      <c r="AK1" s="216" t="s">
-        <v>387</v>
-      </c>
-      <c r="AL1" s="216" t="s">
-        <v>388</v>
-      </c>
       <c r="AM1" s="216" t="s">
-        <v>389</v>
+        <v>273</v>
       </c>
       <c r="AN1" s="216" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AO1" s="216" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AP1" s="216" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AQ1" s="216" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AR1" s="216" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AS1" s="216" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AT1" s="216" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AU1" s="216" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AV1" s="216" t="s">
-        <v>281</v>
-      </c>
-      <c r="AW1" s="216" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="2" spans="1:49" s="215" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="241" t="s">
+    <row r="2" spans="1:48" s="215" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="226" t="s">
         <v>283</v>
       </c>
-      <c r="B2" s="232" t="s">
+      <c r="B2" s="236" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="233" t="s">
+      <c r="C2" s="237" t="s">
         <v>284</v>
       </c>
-      <c r="D2" s="224"/>
-      <c r="E2" s="233" t="s">
+      <c r="D2" s="238"/>
+      <c r="E2" s="237" t="s">
         <v>285</v>
       </c>
-      <c r="F2" s="227" t="s">
+      <c r="F2" s="241" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="230" t="s">
+      <c r="G2" s="229" t="s">
         <v>286</v>
       </c>
-      <c r="H2" s="230" t="s">
+      <c r="H2" s="229" t="s">
         <v>287</v>
       </c>
-      <c r="I2" s="230" t="s">
+      <c r="I2" s="229" t="s">
         <v>288</v>
       </c>
-      <c r="J2" s="230" t="s">
+      <c r="J2" s="229" t="s">
         <v>289</v>
       </c>
-      <c r="K2" s="231" t="s">
+      <c r="K2" s="235" t="s">
         <v>290</v>
       </c>
-      <c r="L2" s="231">
+      <c r="L2" s="235">
         <v>4</v>
       </c>
-      <c r="M2" s="230">
+      <c r="M2" s="229">
         <v>4</v>
       </c>
-      <c r="N2" s="230" t="s">
+      <c r="N2" s="229" t="s">
         <v>291</v>
       </c>
-      <c r="O2" s="231" t="s">
+      <c r="O2" s="235" t="s">
         <v>292</v>
       </c>
-      <c r="P2" s="234">
+      <c r="P2" s="229">
         <v>1</v>
       </c>
-      <c r="Q2" s="230">
+      <c r="Q2" s="229"/>
+      <c r="R2" s="235">
+        <v>5</v>
+      </c>
+      <c r="S2" s="229">
+        <v>5</v>
+      </c>
+      <c r="T2" s="229" t="s">
+        <v>291</v>
+      </c>
+      <c r="U2" s="231" t="s">
+        <v>293</v>
+      </c>
+      <c r="V2" s="234">
         <v>1</v>
       </c>
-      <c r="R2" s="230"/>
-      <c r="S2" s="231">
+      <c r="W2" s="229">
+        <v>1</v>
+      </c>
+      <c r="X2" s="229"/>
+      <c r="Y2" s="235">
+        <v>6</v>
+      </c>
+      <c r="Z2" s="229">
+        <v>6</v>
+      </c>
+      <c r="AA2" s="229" t="s">
+        <v>291</v>
+      </c>
+      <c r="AB2" s="235" t="s">
+        <v>294</v>
+      </c>
+      <c r="AC2" s="234">
+        <v>1</v>
+      </c>
+      <c r="AD2" s="229">
+        <v>1</v>
+      </c>
+      <c r="AE2" s="229"/>
+      <c r="AF2" s="235">
+        <v>7</v>
+      </c>
+      <c r="AG2" s="229">
+        <v>7</v>
+      </c>
+      <c r="AH2" s="229" t="s">
+        <v>291</v>
+      </c>
+      <c r="AI2" s="235" t="s">
+        <v>295</v>
+      </c>
+      <c r="AJ2" s="234">
+        <v>1</v>
+      </c>
+      <c r="AK2" s="229">
+        <v>1</v>
+      </c>
+      <c r="AL2" s="229"/>
+      <c r="AM2" s="229" t="s">
+        <v>291</v>
+      </c>
+      <c r="AN2" s="229">
+        <v>6</v>
+      </c>
+      <c r="AO2" s="229">
+        <v>1001</v>
+      </c>
+      <c r="AP2" s="229"/>
+      <c r="AQ2" s="229" t="s">
+        <v>296</v>
+      </c>
+      <c r="AR2" s="229"/>
+      <c r="AS2" s="230" t="s">
+        <v>291</v>
+      </c>
+      <c r="AT2" s="229" t="s">
+        <v>291</v>
+      </c>
+      <c r="AU2" s="229" t="s">
+        <v>297</v>
+      </c>
+      <c r="AV2" s="229" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="3" spans="1:48" s="215" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="227"/>
+      <c r="B3" s="236"/>
+      <c r="C3" s="237"/>
+      <c r="D3" s="239"/>
+      <c r="E3" s="237"/>
+      <c r="F3" s="242"/>
+      <c r="G3" s="229"/>
+      <c r="H3" s="229"/>
+      <c r="I3" s="229"/>
+      <c r="J3" s="229"/>
+      <c r="K3" s="235"/>
+      <c r="L3" s="235"/>
+      <c r="M3" s="229"/>
+      <c r="N3" s="229"/>
+      <c r="O3" s="235"/>
+      <c r="P3" s="229"/>
+      <c r="Q3" s="229"/>
+      <c r="R3" s="235"/>
+      <c r="S3" s="229"/>
+      <c r="T3" s="229"/>
+      <c r="U3" s="232"/>
+      <c r="V3" s="234"/>
+      <c r="W3" s="229"/>
+      <c r="X3" s="229"/>
+      <c r="Y3" s="235"/>
+      <c r="Z3" s="229"/>
+      <c r="AA3" s="229"/>
+      <c r="AB3" s="235"/>
+      <c r="AC3" s="234"/>
+      <c r="AD3" s="229"/>
+      <c r="AE3" s="229"/>
+      <c r="AF3" s="235"/>
+      <c r="AG3" s="229"/>
+      <c r="AH3" s="229"/>
+      <c r="AI3" s="235"/>
+      <c r="AJ3" s="234"/>
+      <c r="AK3" s="229"/>
+      <c r="AL3" s="229"/>
+      <c r="AM3" s="229"/>
+      <c r="AN3" s="229"/>
+      <c r="AO3" s="229"/>
+      <c r="AP3" s="229"/>
+      <c r="AQ3" s="229"/>
+      <c r="AR3" s="229"/>
+      <c r="AS3" s="230"/>
+      <c r="AT3" s="229"/>
+      <c r="AU3" s="229"/>
+      <c r="AV3" s="229"/>
+    </row>
+    <row r="4" spans="1:48" s="215" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="227"/>
+      <c r="B4" s="236"/>
+      <c r="C4" s="237"/>
+      <c r="D4" s="239"/>
+      <c r="E4" s="237"/>
+      <c r="F4" s="242"/>
+      <c r="G4" s="229"/>
+      <c r="H4" s="229"/>
+      <c r="I4" s="229"/>
+      <c r="J4" s="229"/>
+      <c r="K4" s="235"/>
+      <c r="L4" s="235"/>
+      <c r="M4" s="229"/>
+      <c r="N4" s="229"/>
+      <c r="O4" s="235"/>
+      <c r="P4" s="229"/>
+      <c r="Q4" s="229"/>
+      <c r="R4" s="235"/>
+      <c r="S4" s="229"/>
+      <c r="T4" s="229"/>
+      <c r="U4" s="232"/>
+      <c r="V4" s="234"/>
+      <c r="W4" s="229"/>
+      <c r="X4" s="229"/>
+      <c r="Y4" s="235"/>
+      <c r="Z4" s="229"/>
+      <c r="AA4" s="229"/>
+      <c r="AB4" s="235"/>
+      <c r="AC4" s="234"/>
+      <c r="AD4" s="229"/>
+      <c r="AE4" s="229"/>
+      <c r="AF4" s="235"/>
+      <c r="AG4" s="229"/>
+      <c r="AH4" s="229"/>
+      <c r="AI4" s="235"/>
+      <c r="AJ4" s="234"/>
+      <c r="AK4" s="229"/>
+      <c r="AL4" s="229"/>
+      <c r="AM4" s="229"/>
+      <c r="AN4" s="229"/>
+      <c r="AO4" s="229"/>
+      <c r="AP4" s="229"/>
+      <c r="AQ4" s="229"/>
+      <c r="AR4" s="229"/>
+      <c r="AS4" s="230"/>
+      <c r="AT4" s="229"/>
+      <c r="AU4" s="229"/>
+      <c r="AV4" s="229"/>
+    </row>
+    <row r="5" spans="1:48" s="215" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="228"/>
+      <c r="B5" s="236"/>
+      <c r="C5" s="237"/>
+      <c r="D5" s="240"/>
+      <c r="E5" s="237"/>
+      <c r="F5" s="243"/>
+      <c r="G5" s="229"/>
+      <c r="H5" s="229"/>
+      <c r="I5" s="229"/>
+      <c r="J5" s="229"/>
+      <c r="K5" s="235"/>
+      <c r="L5" s="235"/>
+      <c r="M5" s="229"/>
+      <c r="N5" s="229"/>
+      <c r="O5" s="235"/>
+      <c r="P5" s="229"/>
+      <c r="Q5" s="229"/>
+      <c r="R5" s="235"/>
+      <c r="S5" s="229"/>
+      <c r="T5" s="229"/>
+      <c r="U5" s="233"/>
+      <c r="V5" s="234"/>
+      <c r="W5" s="229"/>
+      <c r="X5" s="229"/>
+      <c r="Y5" s="235"/>
+      <c r="Z5" s="229"/>
+      <c r="AA5" s="229"/>
+      <c r="AB5" s="235"/>
+      <c r="AC5" s="234"/>
+      <c r="AD5" s="229"/>
+      <c r="AE5" s="229"/>
+      <c r="AF5" s="235"/>
+      <c r="AG5" s="229"/>
+      <c r="AH5" s="229"/>
+      <c r="AI5" s="235"/>
+      <c r="AJ5" s="234"/>
+      <c r="AK5" s="229"/>
+      <c r="AL5" s="229"/>
+      <c r="AM5" s="229"/>
+      <c r="AN5" s="229"/>
+      <c r="AO5" s="229"/>
+      <c r="AP5" s="229"/>
+      <c r="AQ5" s="229"/>
+      <c r="AR5" s="229"/>
+      <c r="AS5" s="230"/>
+      <c r="AT5" s="229"/>
+      <c r="AU5" s="229"/>
+      <c r="AV5" s="229"/>
+    </row>
+    <row r="6" spans="1:48" s="215" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="226" t="s">
+        <v>283</v>
+      </c>
+      <c r="B6" s="236" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="237" t="s">
+        <v>284</v>
+      </c>
+      <c r="D6" s="238"/>
+      <c r="E6" s="237" t="s">
+        <v>299</v>
+      </c>
+      <c r="F6" s="241" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" s="229" t="s">
+        <v>286</v>
+      </c>
+      <c r="H6" s="229" t="s">
+        <v>287</v>
+      </c>
+      <c r="I6" s="229" t="s">
+        <v>288</v>
+      </c>
+      <c r="J6" s="229" t="s">
+        <v>289</v>
+      </c>
+      <c r="K6" s="235" t="s">
+        <v>290</v>
+      </c>
+      <c r="L6" s="235">
+        <v>4</v>
+      </c>
+      <c r="M6" s="229">
+        <v>4</v>
+      </c>
+      <c r="N6" s="229" t="s">
+        <v>291</v>
+      </c>
+      <c r="O6" s="235" t="s">
+        <v>292</v>
+      </c>
+      <c r="P6" s="229">
+        <v>2</v>
+      </c>
+      <c r="Q6" s="229"/>
+      <c r="R6" s="235">
         <v>5</v>
       </c>
-      <c r="T2" s="230">
+      <c r="S6" s="229">
         <v>5</v>
       </c>
-      <c r="U2" s="230" t="s">
+      <c r="T6" s="229" t="s">
         <v>291</v>
       </c>
-      <c r="V2" s="236" t="s">
+      <c r="U6" s="231" t="s">
         <v>293</v>
       </c>
-      <c r="W2" s="234">
+      <c r="V6" s="234">
+        <v>2</v>
+      </c>
+      <c r="W6" s="229">
+        <v>2</v>
+      </c>
+      <c r="X6" s="229"/>
+      <c r="Y6" s="235">
+        <v>6</v>
+      </c>
+      <c r="Z6" s="229">
+        <v>6</v>
+      </c>
+      <c r="AA6" s="229" t="s">
+        <v>291</v>
+      </c>
+      <c r="AB6" s="235" t="s">
+        <v>294</v>
+      </c>
+      <c r="AC6" s="234">
+        <v>2</v>
+      </c>
+      <c r="AD6" s="229">
+        <v>2</v>
+      </c>
+      <c r="AE6" s="229"/>
+      <c r="AF6" s="235">
+        <v>7</v>
+      </c>
+      <c r="AG6" s="229">
+        <v>7</v>
+      </c>
+      <c r="AH6" s="229" t="s">
+        <v>291</v>
+      </c>
+      <c r="AI6" s="235" t="s">
+        <v>295</v>
+      </c>
+      <c r="AJ6" s="234">
+        <v>2</v>
+      </c>
+      <c r="AK6" s="229">
+        <v>2</v>
+      </c>
+      <c r="AL6" s="229"/>
+      <c r="AM6" s="229" t="s">
+        <v>291</v>
+      </c>
+      <c r="AN6" s="229">
+        <v>6</v>
+      </c>
+      <c r="AO6" s="229">
+        <v>1001</v>
+      </c>
+      <c r="AP6" s="229"/>
+      <c r="AQ6" s="229" t="s">
+        <v>296</v>
+      </c>
+      <c r="AR6" s="229"/>
+      <c r="AS6" s="230" t="s">
+        <v>291</v>
+      </c>
+      <c r="AT6" s="229" t="s">
+        <v>291</v>
+      </c>
+      <c r="AU6" s="229" t="s">
+        <v>297</v>
+      </c>
+      <c r="AV6" s="229" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="7" spans="1:48" s="215" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="227"/>
+      <c r="B7" s="236"/>
+      <c r="C7" s="237"/>
+      <c r="D7" s="239"/>
+      <c r="E7" s="237"/>
+      <c r="F7" s="242"/>
+      <c r="G7" s="229"/>
+      <c r="H7" s="229"/>
+      <c r="I7" s="229"/>
+      <c r="J7" s="229"/>
+      <c r="K7" s="235"/>
+      <c r="L7" s="235"/>
+      <c r="M7" s="229"/>
+      <c r="N7" s="229"/>
+      <c r="O7" s="235"/>
+      <c r="P7" s="229"/>
+      <c r="Q7" s="229"/>
+      <c r="R7" s="235"/>
+      <c r="S7" s="229"/>
+      <c r="T7" s="229"/>
+      <c r="U7" s="232"/>
+      <c r="V7" s="234"/>
+      <c r="W7" s="229"/>
+      <c r="X7" s="229"/>
+      <c r="Y7" s="235"/>
+      <c r="Z7" s="229"/>
+      <c r="AA7" s="229"/>
+      <c r="AB7" s="235"/>
+      <c r="AC7" s="234"/>
+      <c r="AD7" s="229"/>
+      <c r="AE7" s="229"/>
+      <c r="AF7" s="235"/>
+      <c r="AG7" s="229"/>
+      <c r="AH7" s="229"/>
+      <c r="AI7" s="235"/>
+      <c r="AJ7" s="234"/>
+      <c r="AK7" s="229"/>
+      <c r="AL7" s="229"/>
+      <c r="AM7" s="229"/>
+      <c r="AN7" s="229"/>
+      <c r="AO7" s="229"/>
+      <c r="AP7" s="229"/>
+      <c r="AQ7" s="229"/>
+      <c r="AR7" s="229"/>
+      <c r="AS7" s="230"/>
+      <c r="AT7" s="229"/>
+      <c r="AU7" s="229"/>
+      <c r="AV7" s="229"/>
+    </row>
+    <row r="8" spans="1:48" s="215" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="227"/>
+      <c r="B8" s="236"/>
+      <c r="C8" s="237"/>
+      <c r="D8" s="239"/>
+      <c r="E8" s="237"/>
+      <c r="F8" s="242"/>
+      <c r="G8" s="229"/>
+      <c r="H8" s="229"/>
+      <c r="I8" s="229"/>
+      <c r="J8" s="229"/>
+      <c r="K8" s="235"/>
+      <c r="L8" s="235"/>
+      <c r="M8" s="229"/>
+      <c r="N8" s="229"/>
+      <c r="O8" s="235"/>
+      <c r="P8" s="229"/>
+      <c r="Q8" s="229"/>
+      <c r="R8" s="235"/>
+      <c r="S8" s="229"/>
+      <c r="T8" s="229"/>
+      <c r="U8" s="232"/>
+      <c r="V8" s="234"/>
+      <c r="W8" s="229"/>
+      <c r="X8" s="229"/>
+      <c r="Y8" s="235"/>
+      <c r="Z8" s="229"/>
+      <c r="AA8" s="229"/>
+      <c r="AB8" s="235"/>
+      <c r="AC8" s="234"/>
+      <c r="AD8" s="229"/>
+      <c r="AE8" s="229"/>
+      <c r="AF8" s="235"/>
+      <c r="AG8" s="229"/>
+      <c r="AH8" s="229"/>
+      <c r="AI8" s="235"/>
+      <c r="AJ8" s="234"/>
+      <c r="AK8" s="229"/>
+      <c r="AL8" s="229"/>
+      <c r="AM8" s="229"/>
+      <c r="AN8" s="229"/>
+      <c r="AO8" s="229"/>
+      <c r="AP8" s="229"/>
+      <c r="AQ8" s="229"/>
+      <c r="AR8" s="229"/>
+      <c r="AS8" s="230"/>
+      <c r="AT8" s="229"/>
+      <c r="AU8" s="229"/>
+      <c r="AV8" s="229"/>
+    </row>
+    <row r="9" spans="1:48" s="215" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="228"/>
+      <c r="B9" s="236"/>
+      <c r="C9" s="237"/>
+      <c r="D9" s="240"/>
+      <c r="E9" s="237"/>
+      <c r="F9" s="243"/>
+      <c r="G9" s="229"/>
+      <c r="H9" s="229"/>
+      <c r="I9" s="229"/>
+      <c r="J9" s="229"/>
+      <c r="K9" s="235"/>
+      <c r="L9" s="235"/>
+      <c r="M9" s="229"/>
+      <c r="N9" s="229"/>
+      <c r="O9" s="235"/>
+      <c r="P9" s="229"/>
+      <c r="Q9" s="229"/>
+      <c r="R9" s="235"/>
+      <c r="S9" s="229"/>
+      <c r="T9" s="229"/>
+      <c r="U9" s="233"/>
+      <c r="V9" s="234"/>
+      <c r="W9" s="229"/>
+      <c r="X9" s="229"/>
+      <c r="Y9" s="235"/>
+      <c r="Z9" s="229"/>
+      <c r="AA9" s="229"/>
+      <c r="AB9" s="235"/>
+      <c r="AC9" s="234"/>
+      <c r="AD9" s="229"/>
+      <c r="AE9" s="229"/>
+      <c r="AF9" s="235"/>
+      <c r="AG9" s="229"/>
+      <c r="AH9" s="229"/>
+      <c r="AI9" s="235"/>
+      <c r="AJ9" s="234"/>
+      <c r="AK9" s="229"/>
+      <c r="AL9" s="229"/>
+      <c r="AM9" s="229"/>
+      <c r="AN9" s="229"/>
+      <c r="AO9" s="229"/>
+      <c r="AP9" s="229"/>
+      <c r="AQ9" s="229"/>
+      <c r="AR9" s="229"/>
+      <c r="AS9" s="230"/>
+      <c r="AT9" s="229"/>
+      <c r="AU9" s="229"/>
+      <c r="AV9" s="229"/>
+    </row>
+    <row r="10" spans="1:48" s="215" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="226" t="s">
+        <v>300</v>
+      </c>
+      <c r="B10" s="236" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" s="237" t="s">
+        <v>284</v>
+      </c>
+      <c r="D10" s="238"/>
+      <c r="E10" s="237" t="s">
+        <v>285</v>
+      </c>
+      <c r="F10" s="241" t="s">
+        <v>21</v>
+      </c>
+      <c r="G10" s="229" t="s">
+        <v>286</v>
+      </c>
+      <c r="H10" s="229" t="s">
+        <v>287</v>
+      </c>
+      <c r="I10" s="229" t="s">
+        <v>288</v>
+      </c>
+      <c r="J10" s="229" t="s">
+        <v>289</v>
+      </c>
+      <c r="K10" s="235" t="s">
+        <v>290</v>
+      </c>
+      <c r="L10" s="235">
+        <v>4</v>
+      </c>
+      <c r="M10" s="229">
+        <v>4</v>
+      </c>
+      <c r="N10" s="229" t="s">
+        <v>291</v>
+      </c>
+      <c r="O10" s="235" t="s">
+        <v>292</v>
+      </c>
+      <c r="P10" s="229">
         <v>1</v>
       </c>
-      <c r="X2" s="230">
+      <c r="Q10" s="229"/>
+      <c r="R10" s="235">
+        <v>5</v>
+      </c>
+      <c r="S10" s="229">
+        <v>5</v>
+      </c>
+      <c r="T10" s="229" t="s">
+        <v>291</v>
+      </c>
+      <c r="U10" s="231" t="s">
+        <v>293</v>
+      </c>
+      <c r="V10" s="234">
         <v>1</v>
       </c>
-      <c r="Y2" s="230"/>
-      <c r="Z2" s="231">
+      <c r="W10" s="229">
+        <v>1</v>
+      </c>
+      <c r="X10" s="229"/>
+      <c r="Y10" s="235">
         <v>6</v>
       </c>
-      <c r="AA2" s="230">
+      <c r="Z10" s="229">
         <v>6</v>
       </c>
-      <c r="AB2" s="230" t="s">
+      <c r="AA10" s="229" t="s">
         <v>291</v>
       </c>
-      <c r="AC2" s="231" t="s">
+      <c r="AB10" s="235" t="s">
         <v>294</v>
       </c>
-      <c r="AD2" s="234">
+      <c r="AC10" s="234">
         <v>1</v>
       </c>
-      <c r="AE2" s="230">
+      <c r="AD10" s="229">
         <v>1</v>
       </c>
-      <c r="AF2" s="230"/>
-      <c r="AG2" s="231">
+      <c r="AE10" s="229"/>
+      <c r="AF10" s="235">
         <v>7</v>
       </c>
-      <c r="AH2" s="230">
+      <c r="AG10" s="229">
         <v>7</v>
       </c>
-      <c r="AI2" s="230" t="s">
+      <c r="AH10" s="229" t="s">
         <v>291</v>
       </c>
-      <c r="AJ2" s="231" t="s">
+      <c r="AI10" s="235" t="s">
         <v>295</v>
       </c>
-      <c r="AK2" s="234">
+      <c r="AJ10" s="234">
         <v>1</v>
       </c>
-      <c r="AL2" s="230">
+      <c r="AK10" s="229">
         <v>1</v>
       </c>
-      <c r="AM2" s="230"/>
-      <c r="AN2" s="230" t="s">
+      <c r="AL10" s="229"/>
+      <c r="AM10" s="229" t="s">
         <v>291</v>
       </c>
-      <c r="AO2" s="230">
+      <c r="AN10" s="229">
         <v>6</v>
       </c>
-      <c r="AP2" s="230">
+      <c r="AO10" s="229">
         <v>1001</v>
       </c>
-      <c r="AQ2" s="230"/>
-      <c r="AR2" s="230" t="s">
+      <c r="AP10" s="229"/>
+      <c r="AQ10" s="229" t="s">
         <v>296</v>
       </c>
-      <c r="AS2" s="230"/>
-      <c r="AT2" s="235" t="s">
+      <c r="AR10" s="229"/>
+      <c r="AS10" s="230" t="s">
         <v>291</v>
       </c>
-      <c r="AU2" s="230" t="s">
+      <c r="AT10" s="229" t="s">
         <v>291</v>
       </c>
-      <c r="AV2" s="230" t="s">
+      <c r="AU10" s="229" t="s">
         <v>297</v>
       </c>
-      <c r="AW2" s="230" t="s">
+      <c r="AV10" s="229" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="3" spans="1:49" s="215" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="242"/>
-      <c r="B3" s="232"/>
-      <c r="C3" s="233"/>
-      <c r="D3" s="225"/>
-      <c r="E3" s="233"/>
-      <c r="F3" s="228"/>
-      <c r="G3" s="230"/>
-      <c r="H3" s="230"/>
-      <c r="I3" s="230"/>
-      <c r="J3" s="230"/>
-      <c r="K3" s="231"/>
-      <c r="L3" s="231"/>
-      <c r="M3" s="230"/>
-      <c r="N3" s="230"/>
-      <c r="O3" s="231"/>
-      <c r="P3" s="234"/>
-      <c r="Q3" s="230"/>
-      <c r="R3" s="230"/>
-      <c r="S3" s="231"/>
-      <c r="T3" s="230"/>
-      <c r="U3" s="230"/>
-      <c r="V3" s="237"/>
-      <c r="W3" s="234"/>
-      <c r="X3" s="230"/>
-      <c r="Y3" s="230"/>
-      <c r="Z3" s="231"/>
-      <c r="AA3" s="230"/>
-      <c r="AB3" s="230"/>
-      <c r="AC3" s="231"/>
-      <c r="AD3" s="234"/>
-      <c r="AE3" s="230"/>
-      <c r="AF3" s="230"/>
-      <c r="AG3" s="231"/>
-      <c r="AH3" s="230"/>
-      <c r="AI3" s="230"/>
-      <c r="AJ3" s="231"/>
-      <c r="AK3" s="234"/>
-      <c r="AL3" s="230"/>
-      <c r="AM3" s="230"/>
-      <c r="AN3" s="230"/>
-      <c r="AO3" s="230"/>
-      <c r="AP3" s="230"/>
-      <c r="AQ3" s="230"/>
-      <c r="AR3" s="230"/>
-      <c r="AS3" s="230"/>
-      <c r="AT3" s="235"/>
-      <c r="AU3" s="230"/>
-      <c r="AV3" s="230"/>
-      <c r="AW3" s="230"/>
-    </row>
-    <row r="4" spans="1:49" s="215" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="242"/>
-      <c r="B4" s="232"/>
-      <c r="C4" s="233"/>
-      <c r="D4" s="225"/>
-      <c r="E4" s="233"/>
-      <c r="F4" s="228"/>
-      <c r="G4" s="230"/>
-      <c r="H4" s="230"/>
-      <c r="I4" s="230"/>
-      <c r="J4" s="230"/>
-      <c r="K4" s="231"/>
-      <c r="L4" s="231"/>
-      <c r="M4" s="230"/>
-      <c r="N4" s="230"/>
-      <c r="O4" s="231"/>
-      <c r="P4" s="234"/>
-      <c r="Q4" s="230"/>
-      <c r="R4" s="230"/>
-      <c r="S4" s="231"/>
-      <c r="T4" s="230"/>
-      <c r="U4" s="230"/>
-      <c r="V4" s="237"/>
-      <c r="W4" s="234"/>
-      <c r="X4" s="230"/>
-      <c r="Y4" s="230"/>
-      <c r="Z4" s="231"/>
-      <c r="AA4" s="230"/>
-      <c r="AB4" s="230"/>
-      <c r="AC4" s="231"/>
-      <c r="AD4" s="234"/>
-      <c r="AE4" s="230"/>
-      <c r="AF4" s="230"/>
-      <c r="AG4" s="231"/>
-      <c r="AH4" s="230"/>
-      <c r="AI4" s="230"/>
-      <c r="AJ4" s="231"/>
-      <c r="AK4" s="234"/>
-      <c r="AL4" s="230"/>
-      <c r="AM4" s="230"/>
-      <c r="AN4" s="230"/>
-      <c r="AO4" s="230"/>
-      <c r="AP4" s="230"/>
-      <c r="AQ4" s="230"/>
-      <c r="AR4" s="230"/>
-      <c r="AS4" s="230"/>
-      <c r="AT4" s="235"/>
-      <c r="AU4" s="230"/>
-      <c r="AV4" s="230"/>
-      <c r="AW4" s="230"/>
-    </row>
-    <row r="5" spans="1:49" s="215" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="243"/>
-      <c r="B5" s="232"/>
-      <c r="C5" s="233"/>
-      <c r="D5" s="226"/>
-      <c r="E5" s="233"/>
-      <c r="F5" s="229"/>
-      <c r="G5" s="230"/>
-      <c r="H5" s="230"/>
-      <c r="I5" s="230"/>
-      <c r="J5" s="230"/>
-      <c r="K5" s="231"/>
-      <c r="L5" s="231"/>
-      <c r="M5" s="230"/>
-      <c r="N5" s="230"/>
-      <c r="O5" s="231"/>
-      <c r="P5" s="234"/>
-      <c r="Q5" s="230"/>
-      <c r="R5" s="230"/>
-      <c r="S5" s="231"/>
-      <c r="T5" s="230"/>
-      <c r="U5" s="230"/>
-      <c r="V5" s="238"/>
-      <c r="W5" s="234"/>
-      <c r="X5" s="230"/>
-      <c r="Y5" s="230"/>
-      <c r="Z5" s="231"/>
-      <c r="AA5" s="230"/>
-      <c r="AB5" s="230"/>
-      <c r="AC5" s="231"/>
-      <c r="AD5" s="234"/>
-      <c r="AE5" s="230"/>
-      <c r="AF5" s="230"/>
-      <c r="AG5" s="231"/>
-      <c r="AH5" s="230"/>
-      <c r="AI5" s="230"/>
-      <c r="AJ5" s="231"/>
-      <c r="AK5" s="234"/>
-      <c r="AL5" s="230"/>
-      <c r="AM5" s="230"/>
-      <c r="AN5" s="230"/>
-      <c r="AO5" s="230"/>
-      <c r="AP5" s="230"/>
-      <c r="AQ5" s="230"/>
-      <c r="AR5" s="230"/>
-      <c r="AS5" s="230"/>
-      <c r="AT5" s="235"/>
-      <c r="AU5" s="230"/>
-      <c r="AV5" s="230"/>
-      <c r="AW5" s="230"/>
-    </row>
-    <row r="6" spans="1:49" s="215" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="241" t="s">
-        <v>283</v>
-      </c>
-      <c r="B6" s="232" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" s="233" t="s">
+    <row r="11" spans="1:48" s="215" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="227"/>
+      <c r="B11" s="236"/>
+      <c r="C11" s="237"/>
+      <c r="D11" s="239"/>
+      <c r="E11" s="237"/>
+      <c r="F11" s="242"/>
+      <c r="G11" s="229"/>
+      <c r="H11" s="229"/>
+      <c r="I11" s="229"/>
+      <c r="J11" s="229"/>
+      <c r="K11" s="235"/>
+      <c r="L11" s="235"/>
+      <c r="M11" s="229"/>
+      <c r="N11" s="229"/>
+      <c r="O11" s="235"/>
+      <c r="P11" s="229"/>
+      <c r="Q11" s="229"/>
+      <c r="R11" s="235"/>
+      <c r="S11" s="229"/>
+      <c r="T11" s="229"/>
+      <c r="U11" s="232"/>
+      <c r="V11" s="234"/>
+      <c r="W11" s="229"/>
+      <c r="X11" s="229"/>
+      <c r="Y11" s="235"/>
+      <c r="Z11" s="229"/>
+      <c r="AA11" s="229"/>
+      <c r="AB11" s="235"/>
+      <c r="AC11" s="234"/>
+      <c r="AD11" s="229"/>
+      <c r="AE11" s="229"/>
+      <c r="AF11" s="235"/>
+      <c r="AG11" s="229"/>
+      <c r="AH11" s="229"/>
+      <c r="AI11" s="235"/>
+      <c r="AJ11" s="234"/>
+      <c r="AK11" s="229"/>
+      <c r="AL11" s="229"/>
+      <c r="AM11" s="229"/>
+      <c r="AN11" s="229"/>
+      <c r="AO11" s="229"/>
+      <c r="AP11" s="229"/>
+      <c r="AQ11" s="229"/>
+      <c r="AR11" s="229"/>
+      <c r="AS11" s="230"/>
+      <c r="AT11" s="229"/>
+      <c r="AU11" s="229"/>
+      <c r="AV11" s="229"/>
+    </row>
+    <row r="12" spans="1:48" s="215" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="227"/>
+      <c r="B12" s="236"/>
+      <c r="C12" s="237"/>
+      <c r="D12" s="239"/>
+      <c r="E12" s="237"/>
+      <c r="F12" s="242"/>
+      <c r="G12" s="229"/>
+      <c r="H12" s="229"/>
+      <c r="I12" s="229"/>
+      <c r="J12" s="229"/>
+      <c r="K12" s="235"/>
+      <c r="L12" s="235"/>
+      <c r="M12" s="229"/>
+      <c r="N12" s="229"/>
+      <c r="O12" s="235"/>
+      <c r="P12" s="229"/>
+      <c r="Q12" s="229"/>
+      <c r="R12" s="235"/>
+      <c r="S12" s="229"/>
+      <c r="T12" s="229"/>
+      <c r="U12" s="232"/>
+      <c r="V12" s="234"/>
+      <c r="W12" s="229"/>
+      <c r="X12" s="229"/>
+      <c r="Y12" s="235"/>
+      <c r="Z12" s="229"/>
+      <c r="AA12" s="229"/>
+      <c r="AB12" s="235"/>
+      <c r="AC12" s="234"/>
+      <c r="AD12" s="229"/>
+      <c r="AE12" s="229"/>
+      <c r="AF12" s="235"/>
+      <c r="AG12" s="229"/>
+      <c r="AH12" s="229"/>
+      <c r="AI12" s="235"/>
+      <c r="AJ12" s="234"/>
+      <c r="AK12" s="229"/>
+      <c r="AL12" s="229"/>
+      <c r="AM12" s="229"/>
+      <c r="AN12" s="229"/>
+      <c r="AO12" s="229"/>
+      <c r="AP12" s="229"/>
+      <c r="AQ12" s="229"/>
+      <c r="AR12" s="229"/>
+      <c r="AS12" s="230"/>
+      <c r="AT12" s="229"/>
+      <c r="AU12" s="229"/>
+      <c r="AV12" s="229"/>
+    </row>
+    <row r="13" spans="1:48" s="215" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="227"/>
+      <c r="B13" s="236"/>
+      <c r="C13" s="237"/>
+      <c r="D13" s="240"/>
+      <c r="E13" s="237"/>
+      <c r="F13" s="243"/>
+      <c r="G13" s="229"/>
+      <c r="H13" s="229"/>
+      <c r="I13" s="229"/>
+      <c r="J13" s="229"/>
+      <c r="K13" s="235"/>
+      <c r="L13" s="235"/>
+      <c r="M13" s="229"/>
+      <c r="N13" s="229"/>
+      <c r="O13" s="235"/>
+      <c r="P13" s="229"/>
+      <c r="Q13" s="229"/>
+      <c r="R13" s="235"/>
+      <c r="S13" s="229"/>
+      <c r="T13" s="229"/>
+      <c r="U13" s="233"/>
+      <c r="V13" s="234"/>
+      <c r="W13" s="229"/>
+      <c r="X13" s="229"/>
+      <c r="Y13" s="235"/>
+      <c r="Z13" s="229"/>
+      <c r="AA13" s="229"/>
+      <c r="AB13" s="235"/>
+      <c r="AC13" s="234"/>
+      <c r="AD13" s="229"/>
+      <c r="AE13" s="229"/>
+      <c r="AF13" s="235"/>
+      <c r="AG13" s="229"/>
+      <c r="AH13" s="229"/>
+      <c r="AI13" s="235"/>
+      <c r="AJ13" s="234"/>
+      <c r="AK13" s="229"/>
+      <c r="AL13" s="229"/>
+      <c r="AM13" s="229"/>
+      <c r="AN13" s="229"/>
+      <c r="AO13" s="229"/>
+      <c r="AP13" s="229"/>
+      <c r="AQ13" s="229"/>
+      <c r="AR13" s="229"/>
+      <c r="AS13" s="230"/>
+      <c r="AT13" s="229"/>
+      <c r="AU13" s="229"/>
+      <c r="AV13" s="229"/>
+    </row>
+    <row r="14" spans="1:48" s="215" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="226" t="s">
+        <v>300</v>
+      </c>
+      <c r="B14" s="236" t="s">
+        <v>46</v>
+      </c>
+      <c r="C14" s="237" t="s">
         <v>284</v>
       </c>
-      <c r="D6" s="224"/>
-      <c r="E6" s="233" t="s">
+      <c r="D14" s="238"/>
+      <c r="E14" s="237" t="s">
         <v>299</v>
       </c>
-      <c r="F6" s="227" t="s">
+      <c r="F14" s="241" t="s">
         <v>21</v>
       </c>
-      <c r="G6" s="230" t="s">
+      <c r="G14" s="229" t="s">
         <v>286</v>
       </c>
-      <c r="H6" s="230" t="s">
+      <c r="H14" s="229" t="s">
         <v>287</v>
       </c>
-      <c r="I6" s="230" t="s">
+      <c r="I14" s="229" t="s">
         <v>288</v>
       </c>
-      <c r="J6" s="230" t="s">
+      <c r="J14" s="229" t="s">
         <v>289</v>
       </c>
-      <c r="K6" s="231" t="s">
+      <c r="K14" s="235" t="s">
         <v>290</v>
       </c>
-      <c r="L6" s="231">
+      <c r="L14" s="235">
         <v>4</v>
       </c>
-      <c r="M6" s="230">
+      <c r="M14" s="229">
         <v>4</v>
       </c>
-      <c r="N6" s="230" t="s">
+      <c r="N14" s="229" t="s">
         <v>291</v>
       </c>
-      <c r="O6" s="231" t="s">
+      <c r="O14" s="235" t="s">
         <v>292</v>
       </c>
-      <c r="P6" s="234">
+      <c r="P14" s="229">
         <v>2</v>
       </c>
-      <c r="Q6" s="230">
+      <c r="Q14" s="229"/>
+      <c r="R14" s="235">
+        <v>5</v>
+      </c>
+      <c r="S14" s="229">
+        <v>5</v>
+      </c>
+      <c r="T14" s="229" t="s">
+        <v>291</v>
+      </c>
+      <c r="U14" s="231" t="s">
+        <v>293</v>
+      </c>
+      <c r="V14" s="234">
         <v>2</v>
       </c>
-      <c r="R6" s="230"/>
-      <c r="S6" s="231">
-        <v>5</v>
-      </c>
-      <c r="T6" s="230">
-        <v>5</v>
-      </c>
-      <c r="U6" s="230" t="s">
+      <c r="W14" s="229">
+        <v>2</v>
+      </c>
+      <c r="X14" s="229"/>
+      <c r="Y14" s="235">
+        <v>6</v>
+      </c>
+      <c r="Z14" s="229">
+        <v>6</v>
+      </c>
+      <c r="AA14" s="229" t="s">
         <v>291</v>
       </c>
-      <c r="V6" s="236" t="s">
-        <v>293</v>
-      </c>
-      <c r="W6" s="234">
+      <c r="AB14" s="235" t="s">
+        <v>294</v>
+      </c>
+      <c r="AC14" s="234">
         <v>2</v>
       </c>
-      <c r="X6" s="230">
+      <c r="AD14" s="229">
         <v>2</v>
       </c>
-      <c r="Y6" s="230"/>
-      <c r="Z6" s="231">
+      <c r="AE14" s="229"/>
+      <c r="AF14" s="235">
+        <v>7</v>
+      </c>
+      <c r="AG14" s="229">
+        <v>7</v>
+      </c>
+      <c r="AH14" s="229" t="s">
+        <v>291</v>
+      </c>
+      <c r="AI14" s="235" t="s">
+        <v>295</v>
+      </c>
+      <c r="AJ14" s="234">
+        <v>2</v>
+      </c>
+      <c r="AK14" s="229">
+        <v>2</v>
+      </c>
+      <c r="AL14" s="229"/>
+      <c r="AM14" s="229" t="s">
+        <v>291</v>
+      </c>
+      <c r="AN14" s="229">
         <v>6</v>
       </c>
-      <c r="AA6" s="230">
-        <v>6</v>
-      </c>
-      <c r="AB6" s="230" t="s">
+      <c r="AO14" s="229">
+        <v>1001</v>
+      </c>
+      <c r="AP14" s="229"/>
+      <c r="AQ14" s="229" t="s">
+        <v>296</v>
+      </c>
+      <c r="AR14" s="229"/>
+      <c r="AS14" s="230" t="s">
         <v>291</v>
       </c>
-      <c r="AC6" s="231" t="s">
-        <v>294</v>
-      </c>
-      <c r="AD6" s="234">
-        <v>2</v>
-      </c>
-      <c r="AE6" s="230">
-        <v>2</v>
-      </c>
-      <c r="AF6" s="230"/>
-      <c r="AG6" s="231">
-        <v>7</v>
-      </c>
-      <c r="AH6" s="230">
-        <v>7</v>
-      </c>
-      <c r="AI6" s="230" t="s">
+      <c r="AT14" s="229" t="s">
         <v>291</v>
       </c>
-      <c r="AJ6" s="231" t="s">
-        <v>295</v>
-      </c>
-      <c r="AK6" s="234">
-        <v>2</v>
-      </c>
-      <c r="AL6" s="230">
-        <v>2</v>
-      </c>
-      <c r="AM6" s="230"/>
-      <c r="AN6" s="230" t="s">
-        <v>291</v>
-      </c>
-      <c r="AO6" s="230">
-        <v>6</v>
-      </c>
-      <c r="AP6" s="230">
-        <v>1001</v>
-      </c>
-      <c r="AQ6" s="230"/>
-      <c r="AR6" s="230" t="s">
-        <v>296</v>
-      </c>
-      <c r="AS6" s="230"/>
-      <c r="AT6" s="235" t="s">
-        <v>291</v>
-      </c>
-      <c r="AU6" s="230" t="s">
-        <v>291</v>
-      </c>
-      <c r="AV6" s="230" t="s">
+      <c r="AU14" s="229" t="s">
         <v>297</v>
       </c>
-      <c r="AW6" s="230" t="s">
+      <c r="AV14" s="229" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="7" spans="1:49" s="215" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="242"/>
-      <c r="B7" s="232"/>
-      <c r="C7" s="233"/>
-      <c r="D7" s="225"/>
-      <c r="E7" s="233"/>
-      <c r="F7" s="228"/>
-      <c r="G7" s="230"/>
-      <c r="H7" s="230"/>
-      <c r="I7" s="230"/>
-      <c r="J7" s="230"/>
-      <c r="K7" s="231"/>
-      <c r="L7" s="231"/>
-      <c r="M7" s="230"/>
-      <c r="N7" s="230"/>
-      <c r="O7" s="231"/>
-      <c r="P7" s="234"/>
-      <c r="Q7" s="230"/>
-      <c r="R7" s="230"/>
-      <c r="S7" s="231"/>
-      <c r="T7" s="230"/>
-      <c r="U7" s="230"/>
-      <c r="V7" s="237"/>
-      <c r="W7" s="234"/>
-      <c r="X7" s="230"/>
-      <c r="Y7" s="230"/>
-      <c r="Z7" s="231"/>
-      <c r="AA7" s="230"/>
-      <c r="AB7" s="230"/>
-      <c r="AC7" s="231"/>
-      <c r="AD7" s="234"/>
-      <c r="AE7" s="230"/>
-      <c r="AF7" s="230"/>
-      <c r="AG7" s="231"/>
-      <c r="AH7" s="230"/>
-      <c r="AI7" s="230"/>
-      <c r="AJ7" s="231"/>
-      <c r="AK7" s="234"/>
-      <c r="AL7" s="230"/>
-      <c r="AM7" s="230"/>
-      <c r="AN7" s="230"/>
-      <c r="AO7" s="230"/>
-      <c r="AP7" s="230"/>
-      <c r="AQ7" s="230"/>
-      <c r="AR7" s="230"/>
-      <c r="AS7" s="230"/>
-      <c r="AT7" s="235"/>
-      <c r="AU7" s="230"/>
-      <c r="AV7" s="230"/>
-      <c r="AW7" s="230"/>
-    </row>
-    <row r="8" spans="1:49" s="215" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="242"/>
-      <c r="B8" s="232"/>
-      <c r="C8" s="233"/>
-      <c r="D8" s="225"/>
-      <c r="E8" s="233"/>
-      <c r="F8" s="228"/>
-      <c r="G8" s="230"/>
-      <c r="H8" s="230"/>
-      <c r="I8" s="230"/>
-      <c r="J8" s="230"/>
-      <c r="K8" s="231"/>
-      <c r="L8" s="231"/>
-      <c r="M8" s="230"/>
-      <c r="N8" s="230"/>
-      <c r="O8" s="231"/>
-      <c r="P8" s="234"/>
-      <c r="Q8" s="230"/>
-      <c r="R8" s="230"/>
-      <c r="S8" s="231"/>
-      <c r="T8" s="230"/>
-      <c r="U8" s="230"/>
-      <c r="V8" s="237"/>
-      <c r="W8" s="234"/>
-      <c r="X8" s="230"/>
-      <c r="Y8" s="230"/>
-      <c r="Z8" s="231"/>
-      <c r="AA8" s="230"/>
-      <c r="AB8" s="230"/>
-      <c r="AC8" s="231"/>
-      <c r="AD8" s="234"/>
-      <c r="AE8" s="230"/>
-      <c r="AF8" s="230"/>
-      <c r="AG8" s="231"/>
-      <c r="AH8" s="230"/>
-      <c r="AI8" s="230"/>
-      <c r="AJ8" s="231"/>
-      <c r="AK8" s="234"/>
-      <c r="AL8" s="230"/>
-      <c r="AM8" s="230"/>
-      <c r="AN8" s="230"/>
-      <c r="AO8" s="230"/>
-      <c r="AP8" s="230"/>
-      <c r="AQ8" s="230"/>
-      <c r="AR8" s="230"/>
-      <c r="AS8" s="230"/>
-      <c r="AT8" s="235"/>
-      <c r="AU8" s="230"/>
-      <c r="AV8" s="230"/>
-      <c r="AW8" s="230"/>
-    </row>
-    <row r="9" spans="1:49" s="215" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="243"/>
-      <c r="B9" s="232"/>
-      <c r="C9" s="233"/>
-      <c r="D9" s="226"/>
-      <c r="E9" s="233"/>
-      <c r="F9" s="229"/>
-      <c r="G9" s="230"/>
-      <c r="H9" s="230"/>
-      <c r="I9" s="230"/>
-      <c r="J9" s="230"/>
-      <c r="K9" s="231"/>
-      <c r="L9" s="231"/>
-      <c r="M9" s="230"/>
-      <c r="N9" s="230"/>
-      <c r="O9" s="231"/>
-      <c r="P9" s="234"/>
-      <c r="Q9" s="230"/>
-      <c r="R9" s="230"/>
-      <c r="S9" s="231"/>
-      <c r="T9" s="230"/>
-      <c r="U9" s="230"/>
-      <c r="V9" s="238"/>
-      <c r="W9" s="234"/>
-      <c r="X9" s="230"/>
-      <c r="Y9" s="230"/>
-      <c r="Z9" s="231"/>
-      <c r="AA9" s="230"/>
-      <c r="AB9" s="230"/>
-      <c r="AC9" s="231"/>
-      <c r="AD9" s="234"/>
-      <c r="AE9" s="230"/>
-      <c r="AF9" s="230"/>
-      <c r="AG9" s="231"/>
-      <c r="AH9" s="230"/>
-      <c r="AI9" s="230"/>
-      <c r="AJ9" s="231"/>
-      <c r="AK9" s="234"/>
-      <c r="AL9" s="230"/>
-      <c r="AM9" s="230"/>
-      <c r="AN9" s="230"/>
-      <c r="AO9" s="230"/>
-      <c r="AP9" s="230"/>
-      <c r="AQ9" s="230"/>
-      <c r="AR9" s="230"/>
-      <c r="AS9" s="230"/>
-      <c r="AT9" s="235"/>
-      <c r="AU9" s="230"/>
-      <c r="AV9" s="230"/>
-      <c r="AW9" s="230"/>
-    </row>
-    <row r="10" spans="1:49" s="215" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="241" t="s">
-        <v>300</v>
-      </c>
-      <c r="B10" s="232" t="s">
-        <v>45</v>
-      </c>
-      <c r="C10" s="233" t="s">
-        <v>284</v>
-      </c>
-      <c r="D10" s="224"/>
-      <c r="E10" s="233" t="s">
-        <v>285</v>
-      </c>
-      <c r="F10" s="227" t="s">
-        <v>21</v>
-      </c>
-      <c r="G10" s="230" t="s">
-        <v>286</v>
-      </c>
-      <c r="H10" s="230" t="s">
-        <v>287</v>
-      </c>
-      <c r="I10" s="230" t="s">
-        <v>288</v>
-      </c>
-      <c r="J10" s="230" t="s">
-        <v>289</v>
-      </c>
-      <c r="K10" s="231" t="s">
-        <v>290</v>
-      </c>
-      <c r="L10" s="231">
-        <v>4</v>
-      </c>
-      <c r="M10" s="230">
-        <v>4</v>
-      </c>
-      <c r="N10" s="230" t="s">
-        <v>291</v>
-      </c>
-      <c r="O10" s="231" t="s">
-        <v>292</v>
-      </c>
-      <c r="P10" s="234">
-        <v>1</v>
-      </c>
-      <c r="Q10" s="230">
-        <v>1</v>
-      </c>
-      <c r="R10" s="230"/>
-      <c r="S10" s="231">
-        <v>5</v>
-      </c>
-      <c r="T10" s="230">
-        <v>5</v>
-      </c>
-      <c r="U10" s="230" t="s">
-        <v>291</v>
-      </c>
-      <c r="V10" s="236" t="s">
-        <v>293</v>
-      </c>
-      <c r="W10" s="234">
-        <v>1</v>
-      </c>
-      <c r="X10" s="230">
-        <v>1</v>
-      </c>
-      <c r="Y10" s="230"/>
-      <c r="Z10" s="231">
-        <v>6</v>
-      </c>
-      <c r="AA10" s="230">
-        <v>6</v>
-      </c>
-      <c r="AB10" s="230" t="s">
-        <v>291</v>
-      </c>
-      <c r="AC10" s="231" t="s">
-        <v>294</v>
-      </c>
-      <c r="AD10" s="234">
-        <v>1</v>
-      </c>
-      <c r="AE10" s="230">
-        <v>1</v>
-      </c>
-      <c r="AF10" s="230"/>
-      <c r="AG10" s="231">
-        <v>7</v>
-      </c>
-      <c r="AH10" s="230">
-        <v>7</v>
-      </c>
-      <c r="AI10" s="230" t="s">
-        <v>291</v>
-      </c>
-      <c r="AJ10" s="231" t="s">
-        <v>295</v>
-      </c>
-      <c r="AK10" s="234">
-        <v>1</v>
-      </c>
-      <c r="AL10" s="230">
-        <v>1</v>
-      </c>
-      <c r="AM10" s="230"/>
-      <c r="AN10" s="230" t="s">
-        <v>291</v>
-      </c>
-      <c r="AO10" s="230">
-        <v>6</v>
-      </c>
-      <c r="AP10" s="230">
-        <v>1001</v>
-      </c>
-      <c r="AQ10" s="230"/>
-      <c r="AR10" s="230" t="s">
-        <v>296</v>
-      </c>
-      <c r="AS10" s="230"/>
-      <c r="AT10" s="235" t="s">
-        <v>291</v>
-      </c>
-      <c r="AU10" s="230" t="s">
-        <v>291</v>
-      </c>
-      <c r="AV10" s="230" t="s">
-        <v>297</v>
-      </c>
-      <c r="AW10" s="230" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="11" spans="1:49" s="215" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="242"/>
-      <c r="B11" s="232"/>
-      <c r="C11" s="233"/>
-      <c r="D11" s="225"/>
-      <c r="E11" s="233"/>
-      <c r="F11" s="228"/>
-      <c r="G11" s="230"/>
-      <c r="H11" s="230"/>
-      <c r="I11" s="230"/>
-      <c r="J11" s="230"/>
-      <c r="K11" s="231"/>
-      <c r="L11" s="231"/>
-      <c r="M11" s="230"/>
-      <c r="N11" s="230"/>
-      <c r="O11" s="231"/>
-      <c r="P11" s="234"/>
-      <c r="Q11" s="230"/>
-      <c r="R11" s="230"/>
-      <c r="S11" s="231"/>
-      <c r="T11" s="230"/>
-      <c r="U11" s="230"/>
-      <c r="V11" s="237"/>
-      <c r="W11" s="234"/>
-      <c r="X11" s="230"/>
-      <c r="Y11" s="230"/>
-      <c r="Z11" s="231"/>
-      <c r="AA11" s="230"/>
-      <c r="AB11" s="230"/>
-      <c r="AC11" s="231"/>
-      <c r="AD11" s="234"/>
-      <c r="AE11" s="230"/>
-      <c r="AF11" s="230"/>
-      <c r="AG11" s="231"/>
-      <c r="AH11" s="230"/>
-      <c r="AI11" s="230"/>
-      <c r="AJ11" s="231"/>
-      <c r="AK11" s="234"/>
-      <c r="AL11" s="230"/>
-      <c r="AM11" s="230"/>
-      <c r="AN11" s="230"/>
-      <c r="AO11" s="230"/>
-      <c r="AP11" s="230"/>
-      <c r="AQ11" s="230"/>
-      <c r="AR11" s="230"/>
-      <c r="AS11" s="230"/>
-      <c r="AT11" s="235"/>
-      <c r="AU11" s="230"/>
-      <c r="AV11" s="230"/>
-      <c r="AW11" s="230"/>
-    </row>
-    <row r="12" spans="1:49" s="215" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="242"/>
-      <c r="B12" s="232"/>
-      <c r="C12" s="233"/>
-      <c r="D12" s="225"/>
-      <c r="E12" s="233"/>
-      <c r="F12" s="228"/>
-      <c r="G12" s="230"/>
-      <c r="H12" s="230"/>
-      <c r="I12" s="230"/>
-      <c r="J12" s="230"/>
-      <c r="K12" s="231"/>
-      <c r="L12" s="231"/>
-      <c r="M12" s="230"/>
-      <c r="N12" s="230"/>
-      <c r="O12" s="231"/>
-      <c r="P12" s="234"/>
-      <c r="Q12" s="230"/>
-      <c r="R12" s="230"/>
-      <c r="S12" s="231"/>
-      <c r="T12" s="230"/>
-      <c r="U12" s="230"/>
-      <c r="V12" s="237"/>
-      <c r="W12" s="234"/>
-      <c r="X12" s="230"/>
-      <c r="Y12" s="230"/>
-      <c r="Z12" s="231"/>
-      <c r="AA12" s="230"/>
-      <c r="AB12" s="230"/>
-      <c r="AC12" s="231"/>
-      <c r="AD12" s="234"/>
-      <c r="AE12" s="230"/>
-      <c r="AF12" s="230"/>
-      <c r="AG12" s="231"/>
-      <c r="AH12" s="230"/>
-      <c r="AI12" s="230"/>
-      <c r="AJ12" s="231"/>
-      <c r="AK12" s="234"/>
-      <c r="AL12" s="230"/>
-      <c r="AM12" s="230"/>
-      <c r="AN12" s="230"/>
-      <c r="AO12" s="230"/>
-      <c r="AP12" s="230"/>
-      <c r="AQ12" s="230"/>
-      <c r="AR12" s="230"/>
-      <c r="AS12" s="230"/>
-      <c r="AT12" s="235"/>
-      <c r="AU12" s="230"/>
-      <c r="AV12" s="230"/>
-      <c r="AW12" s="230"/>
-    </row>
-    <row r="13" spans="1:49" s="215" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="242"/>
-      <c r="B13" s="232"/>
-      <c r="C13" s="233"/>
-      <c r="D13" s="226"/>
-      <c r="E13" s="233"/>
-      <c r="F13" s="229"/>
-      <c r="G13" s="230"/>
-      <c r="H13" s="230"/>
-      <c r="I13" s="230"/>
-      <c r="J13" s="230"/>
-      <c r="K13" s="231"/>
-      <c r="L13" s="231"/>
-      <c r="M13" s="230"/>
-      <c r="N13" s="230"/>
-      <c r="O13" s="231"/>
-      <c r="P13" s="234"/>
-      <c r="Q13" s="230"/>
-      <c r="R13" s="230"/>
-      <c r="S13" s="231"/>
-      <c r="T13" s="230"/>
-      <c r="U13" s="230"/>
-      <c r="V13" s="238"/>
-      <c r="W13" s="234"/>
-      <c r="X13" s="230"/>
-      <c r="Y13" s="230"/>
-      <c r="Z13" s="231"/>
-      <c r="AA13" s="230"/>
-      <c r="AB13" s="230"/>
-      <c r="AC13" s="231"/>
-      <c r="AD13" s="234"/>
-      <c r="AE13" s="230"/>
-      <c r="AF13" s="230"/>
-      <c r="AG13" s="231"/>
-      <c r="AH13" s="230"/>
-      <c r="AI13" s="230"/>
-      <c r="AJ13" s="231"/>
-      <c r="AK13" s="234"/>
-      <c r="AL13" s="230"/>
-      <c r="AM13" s="230"/>
-      <c r="AN13" s="230"/>
-      <c r="AO13" s="230"/>
-      <c r="AP13" s="230"/>
-      <c r="AQ13" s="230"/>
-      <c r="AR13" s="230"/>
-      <c r="AS13" s="230"/>
-      <c r="AT13" s="235"/>
-      <c r="AU13" s="230"/>
-      <c r="AV13" s="230"/>
-      <c r="AW13" s="230"/>
-    </row>
-    <row r="14" spans="1:49" s="215" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="241" t="s">
-        <v>300</v>
-      </c>
-      <c r="B14" s="232" t="s">
-        <v>46</v>
-      </c>
-      <c r="C14" s="233" t="s">
-        <v>284</v>
-      </c>
-      <c r="D14" s="224"/>
-      <c r="E14" s="233" t="s">
-        <v>299</v>
-      </c>
-      <c r="F14" s="227" t="s">
-        <v>21</v>
-      </c>
-      <c r="G14" s="230" t="s">
-        <v>286</v>
-      </c>
-      <c r="H14" s="230" t="s">
-        <v>287</v>
-      </c>
-      <c r="I14" s="230" t="s">
-        <v>288</v>
-      </c>
-      <c r="J14" s="230" t="s">
-        <v>289</v>
-      </c>
-      <c r="K14" s="231" t="s">
-        <v>290</v>
-      </c>
-      <c r="L14" s="231">
-        <v>4</v>
-      </c>
-      <c r="M14" s="230">
-        <v>4</v>
-      </c>
-      <c r="N14" s="230" t="s">
-        <v>291</v>
-      </c>
-      <c r="O14" s="231" t="s">
-        <v>292</v>
-      </c>
-      <c r="P14" s="234">
-        <v>2</v>
-      </c>
-      <c r="Q14" s="230">
-        <v>2</v>
-      </c>
-      <c r="R14" s="230"/>
-      <c r="S14" s="231">
-        <v>5</v>
-      </c>
-      <c r="T14" s="230">
-        <v>5</v>
-      </c>
-      <c r="U14" s="230" t="s">
-        <v>291</v>
-      </c>
-      <c r="V14" s="236" t="s">
-        <v>293</v>
-      </c>
-      <c r="W14" s="234">
-        <v>2</v>
-      </c>
-      <c r="X14" s="230">
-        <v>2</v>
-      </c>
-      <c r="Y14" s="230"/>
-      <c r="Z14" s="231">
-        <v>6</v>
-      </c>
-      <c r="AA14" s="230">
-        <v>6</v>
-      </c>
-      <c r="AB14" s="230" t="s">
-        <v>291</v>
-      </c>
-      <c r="AC14" s="231" t="s">
-        <v>294</v>
-      </c>
-      <c r="AD14" s="234">
-        <v>2</v>
-      </c>
-      <c r="AE14" s="230">
-        <v>2</v>
-      </c>
-      <c r="AF14" s="230"/>
-      <c r="AG14" s="231">
-        <v>7</v>
-      </c>
-      <c r="AH14" s="230">
-        <v>7</v>
-      </c>
-      <c r="AI14" s="230" t="s">
-        <v>291</v>
-      </c>
-      <c r="AJ14" s="231" t="s">
-        <v>295</v>
-      </c>
-      <c r="AK14" s="234">
-        <v>2</v>
-      </c>
-      <c r="AL14" s="230">
-        <v>2</v>
-      </c>
-      <c r="AM14" s="230"/>
-      <c r="AN14" s="230" t="s">
-        <v>291</v>
-      </c>
-      <c r="AO14" s="230">
-        <v>6</v>
-      </c>
-      <c r="AP14" s="230">
-        <v>1001</v>
-      </c>
-      <c r="AQ14" s="230"/>
-      <c r="AR14" s="230" t="s">
-        <v>296</v>
-      </c>
-      <c r="AS14" s="230"/>
-      <c r="AT14" s="235" t="s">
-        <v>291</v>
-      </c>
-      <c r="AU14" s="230" t="s">
-        <v>291</v>
-      </c>
-      <c r="AV14" s="230" t="s">
-        <v>297</v>
-      </c>
-      <c r="AW14" s="230" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="15" spans="1:49" s="215" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="A15" s="242"/>
-      <c r="B15" s="232"/>
-      <c r="C15" s="233"/>
-      <c r="D15" s="225"/>
-      <c r="E15" s="233"/>
-      <c r="F15" s="228"/>
-      <c r="G15" s="230"/>
-      <c r="H15" s="230"/>
-      <c r="I15" s="230"/>
-      <c r="J15" s="230"/>
-      <c r="K15" s="231"/>
-      <c r="L15" s="231"/>
-      <c r="M15" s="230"/>
-      <c r="N15" s="230"/>
-      <c r="O15" s="231"/>
-      <c r="P15" s="234"/>
-      <c r="Q15" s="230"/>
-      <c r="R15" s="230"/>
-      <c r="S15" s="231"/>
-      <c r="T15" s="230"/>
-      <c r="U15" s="230"/>
-      <c r="V15" s="237"/>
-      <c r="W15" s="234"/>
-      <c r="X15" s="230"/>
-      <c r="Y15" s="230"/>
-      <c r="Z15" s="231"/>
-      <c r="AA15" s="230"/>
-      <c r="AB15" s="230"/>
-      <c r="AC15" s="231"/>
-      <c r="AD15" s="234"/>
-      <c r="AE15" s="230"/>
-      <c r="AF15" s="230"/>
-      <c r="AG15" s="231"/>
-      <c r="AH15" s="230"/>
-      <c r="AI15" s="230"/>
-      <c r="AJ15" s="231"/>
-      <c r="AK15" s="234"/>
-      <c r="AL15" s="230"/>
-      <c r="AM15" s="230"/>
-      <c r="AN15" s="230"/>
-      <c r="AO15" s="230"/>
-      <c r="AP15" s="230"/>
-      <c r="AQ15" s="230"/>
-      <c r="AR15" s="230"/>
+    <row r="15" spans="1:48" s="215" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="A15" s="227"/>
+      <c r="B15" s="236"/>
+      <c r="C15" s="237"/>
+      <c r="D15" s="239"/>
+      <c r="E15" s="237"/>
+      <c r="F15" s="242"/>
+      <c r="G15" s="229"/>
+      <c r="H15" s="229"/>
+      <c r="I15" s="229"/>
+      <c r="J15" s="229"/>
+      <c r="K15" s="235"/>
+      <c r="L15" s="235"/>
+      <c r="M15" s="229"/>
+      <c r="N15" s="229"/>
+      <c r="O15" s="235"/>
+      <c r="P15" s="229"/>
+      <c r="Q15" s="229"/>
+      <c r="R15" s="235"/>
+      <c r="S15" s="229"/>
+      <c r="T15" s="229"/>
+      <c r="U15" s="232"/>
+      <c r="V15" s="234"/>
+      <c r="W15" s="229"/>
+      <c r="X15" s="229"/>
+      <c r="Y15" s="235"/>
+      <c r="Z15" s="229"/>
+      <c r="AA15" s="229"/>
+      <c r="AB15" s="235"/>
+      <c r="AC15" s="234"/>
+      <c r="AD15" s="229"/>
+      <c r="AE15" s="229"/>
+      <c r="AF15" s="235"/>
+      <c r="AG15" s="229"/>
+      <c r="AH15" s="229"/>
+      <c r="AI15" s="235"/>
+      <c r="AJ15" s="234"/>
+      <c r="AK15" s="229"/>
+      <c r="AL15" s="229"/>
+      <c r="AM15" s="229"/>
+      <c r="AN15" s="229"/>
+      <c r="AO15" s="229"/>
+      <c r="AP15" s="229"/>
+      <c r="AQ15" s="229"/>
+      <c r="AR15" s="229"/>
       <c r="AS15" s="230"/>
-      <c r="AT15" s="235"/>
-      <c r="AU15" s="230"/>
-      <c r="AV15" s="230"/>
-      <c r="AW15" s="230"/>
-    </row>
-    <row r="16" spans="1:49" s="215" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="A16" s="242"/>
-      <c r="B16" s="232"/>
-      <c r="C16" s="233"/>
-      <c r="D16" s="225"/>
-      <c r="E16" s="233"/>
-      <c r="F16" s="228"/>
-      <c r="G16" s="230"/>
-      <c r="H16" s="230"/>
-      <c r="I16" s="230"/>
-      <c r="J16" s="230"/>
-      <c r="K16" s="231"/>
-      <c r="L16" s="231"/>
-      <c r="M16" s="230"/>
-      <c r="N16" s="230"/>
-      <c r="O16" s="231"/>
-      <c r="P16" s="234"/>
-      <c r="Q16" s="230"/>
-      <c r="R16" s="230"/>
-      <c r="S16" s="231"/>
-      <c r="T16" s="230"/>
-      <c r="U16" s="230"/>
-      <c r="V16" s="237"/>
-      <c r="W16" s="234"/>
-      <c r="X16" s="230"/>
-      <c r="Y16" s="230"/>
-      <c r="Z16" s="231"/>
-      <c r="AA16" s="230"/>
-      <c r="AB16" s="230"/>
-      <c r="AC16" s="231"/>
-      <c r="AD16" s="234"/>
-      <c r="AE16" s="230"/>
-      <c r="AF16" s="230"/>
-      <c r="AG16" s="231"/>
-      <c r="AH16" s="230"/>
-      <c r="AI16" s="230"/>
-      <c r="AJ16" s="231"/>
-      <c r="AK16" s="234"/>
-      <c r="AL16" s="230"/>
-      <c r="AM16" s="230"/>
-      <c r="AN16" s="230"/>
-      <c r="AO16" s="230"/>
-      <c r="AP16" s="230"/>
-      <c r="AQ16" s="230"/>
-      <c r="AR16" s="230"/>
+      <c r="AT15" s="229"/>
+      <c r="AU15" s="229"/>
+      <c r="AV15" s="229"/>
+    </row>
+    <row r="16" spans="1:48" s="215" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="A16" s="227"/>
+      <c r="B16" s="236"/>
+      <c r="C16" s="237"/>
+      <c r="D16" s="239"/>
+      <c r="E16" s="237"/>
+      <c r="F16" s="242"/>
+      <c r="G16" s="229"/>
+      <c r="H16" s="229"/>
+      <c r="I16" s="229"/>
+      <c r="J16" s="229"/>
+      <c r="K16" s="235"/>
+      <c r="L16" s="235"/>
+      <c r="M16" s="229"/>
+      <c r="N16" s="229"/>
+      <c r="O16" s="235"/>
+      <c r="P16" s="229"/>
+      <c r="Q16" s="229"/>
+      <c r="R16" s="235"/>
+      <c r="S16" s="229"/>
+      <c r="T16" s="229"/>
+      <c r="U16" s="232"/>
+      <c r="V16" s="234"/>
+      <c r="W16" s="229"/>
+      <c r="X16" s="229"/>
+      <c r="Y16" s="235"/>
+      <c r="Z16" s="229"/>
+      <c r="AA16" s="229"/>
+      <c r="AB16" s="235"/>
+      <c r="AC16" s="234"/>
+      <c r="AD16" s="229"/>
+      <c r="AE16" s="229"/>
+      <c r="AF16" s="235"/>
+      <c r="AG16" s="229"/>
+      <c r="AH16" s="229"/>
+      <c r="AI16" s="235"/>
+      <c r="AJ16" s="234"/>
+      <c r="AK16" s="229"/>
+      <c r="AL16" s="229"/>
+      <c r="AM16" s="229"/>
+      <c r="AN16" s="229"/>
+      <c r="AO16" s="229"/>
+      <c r="AP16" s="229"/>
+      <c r="AQ16" s="229"/>
+      <c r="AR16" s="229"/>
       <c r="AS16" s="230"/>
-      <c r="AT16" s="235"/>
-      <c r="AU16" s="230"/>
-      <c r="AV16" s="230"/>
-      <c r="AW16" s="230"/>
-    </row>
-    <row r="17" spans="1:49" s="215" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="A17" s="242"/>
-      <c r="B17" s="232"/>
-      <c r="C17" s="233"/>
-      <c r="D17" s="226"/>
-      <c r="E17" s="233"/>
-      <c r="F17" s="229"/>
-      <c r="G17" s="230"/>
-      <c r="H17" s="230"/>
-      <c r="I17" s="230"/>
-      <c r="J17" s="230"/>
-      <c r="K17" s="231"/>
-      <c r="L17" s="231"/>
-      <c r="M17" s="230"/>
-      <c r="N17" s="230"/>
-      <c r="O17" s="231"/>
-      <c r="P17" s="234"/>
-      <c r="Q17" s="230"/>
-      <c r="R17" s="230"/>
-      <c r="S17" s="231"/>
-      <c r="T17" s="230"/>
-      <c r="U17" s="230"/>
-      <c r="V17" s="238"/>
-      <c r="W17" s="234"/>
-      <c r="X17" s="230"/>
-      <c r="Y17" s="230"/>
-      <c r="Z17" s="231"/>
-      <c r="AA17" s="230"/>
-      <c r="AB17" s="230"/>
-      <c r="AC17" s="231"/>
-      <c r="AD17" s="234"/>
-      <c r="AE17" s="230"/>
-      <c r="AF17" s="230"/>
-      <c r="AG17" s="231"/>
-      <c r="AH17" s="230"/>
-      <c r="AI17" s="230"/>
-      <c r="AJ17" s="231"/>
-      <c r="AK17" s="234"/>
-      <c r="AL17" s="230"/>
-      <c r="AM17" s="230"/>
-      <c r="AN17" s="230"/>
-      <c r="AO17" s="230"/>
-      <c r="AP17" s="230"/>
-      <c r="AQ17" s="230"/>
-      <c r="AR17" s="230"/>
+      <c r="AT16" s="229"/>
+      <c r="AU16" s="229"/>
+      <c r="AV16" s="229"/>
+    </row>
+    <row r="17" spans="1:48" s="215" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="A17" s="227"/>
+      <c r="B17" s="236"/>
+      <c r="C17" s="237"/>
+      <c r="D17" s="240"/>
+      <c r="E17" s="237"/>
+      <c r="F17" s="243"/>
+      <c r="G17" s="229"/>
+      <c r="H17" s="229"/>
+      <c r="I17" s="229"/>
+      <c r="J17" s="229"/>
+      <c r="K17" s="235"/>
+      <c r="L17" s="235"/>
+      <c r="M17" s="229"/>
+      <c r="N17" s="229"/>
+      <c r="O17" s="235"/>
+      <c r="P17" s="229"/>
+      <c r="Q17" s="229"/>
+      <c r="R17" s="235"/>
+      <c r="S17" s="229"/>
+      <c r="T17" s="229"/>
+      <c r="U17" s="233"/>
+      <c r="V17" s="234"/>
+      <c r="W17" s="229"/>
+      <c r="X17" s="229"/>
+      <c r="Y17" s="235"/>
+      <c r="Z17" s="229"/>
+      <c r="AA17" s="229"/>
+      <c r="AB17" s="235"/>
+      <c r="AC17" s="234"/>
+      <c r="AD17" s="229"/>
+      <c r="AE17" s="229"/>
+      <c r="AF17" s="235"/>
+      <c r="AG17" s="229"/>
+      <c r="AH17" s="229"/>
+      <c r="AI17" s="235"/>
+      <c r="AJ17" s="234"/>
+      <c r="AK17" s="229"/>
+      <c r="AL17" s="229"/>
+      <c r="AM17" s="229"/>
+      <c r="AN17" s="229"/>
+      <c r="AO17" s="229"/>
+      <c r="AP17" s="229"/>
+      <c r="AQ17" s="229"/>
+      <c r="AR17" s="229"/>
       <c r="AS17" s="230"/>
-      <c r="AT17" s="235"/>
-      <c r="AU17" s="230"/>
-      <c r="AV17" s="230"/>
-      <c r="AW17" s="230"/>
+      <c r="AT17" s="229"/>
+      <c r="AU17" s="229"/>
+      <c r="AV17" s="229"/>
     </row>
   </sheetData>
-  <mergeCells count="196">
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="A14:A17"/>
-    <mergeCell ref="AS14:AS17"/>
-    <mergeCell ref="AT14:AT17"/>
-    <mergeCell ref="AU14:AU17"/>
-    <mergeCell ref="AF14:AF17"/>
-    <mergeCell ref="U14:U17"/>
-    <mergeCell ref="V14:V17"/>
-    <mergeCell ref="W14:W17"/>
-    <mergeCell ref="X14:X17"/>
-    <mergeCell ref="Y14:Y17"/>
-    <mergeCell ref="Z14:Z17"/>
-    <mergeCell ref="O14:O17"/>
-    <mergeCell ref="P14:P17"/>
-    <mergeCell ref="Q14:Q17"/>
-    <mergeCell ref="R14:R17"/>
-    <mergeCell ref="S14:S17"/>
-    <mergeCell ref="T14:T17"/>
-    <mergeCell ref="AV14:AV17"/>
-    <mergeCell ref="AW14:AW17"/>
-    <mergeCell ref="AM14:AM17"/>
-    <mergeCell ref="AN14:AN17"/>
-    <mergeCell ref="AO14:AO17"/>
-    <mergeCell ref="AP14:AP17"/>
-    <mergeCell ref="AQ14:AQ17"/>
-    <mergeCell ref="AR14:AR17"/>
-    <mergeCell ref="AG14:AG17"/>
-    <mergeCell ref="AH14:AH17"/>
-    <mergeCell ref="AI14:AI17"/>
-    <mergeCell ref="AJ14:AJ17"/>
-    <mergeCell ref="AK14:AK17"/>
-    <mergeCell ref="AL14:AL17"/>
-    <mergeCell ref="AA14:AA17"/>
-    <mergeCell ref="AB14:AB17"/>
-    <mergeCell ref="AC14:AC17"/>
-    <mergeCell ref="M14:M17"/>
-    <mergeCell ref="N14:N17"/>
-    <mergeCell ref="AD14:AD17"/>
-    <mergeCell ref="AE14:AE17"/>
-    <mergeCell ref="B14:B17"/>
-    <mergeCell ref="C14:C17"/>
-    <mergeCell ref="E14:E17"/>
-    <mergeCell ref="G14:G17"/>
-    <mergeCell ref="H14:H17"/>
-    <mergeCell ref="I14:I17"/>
-    <mergeCell ref="J14:J17"/>
-    <mergeCell ref="K14:K17"/>
-    <mergeCell ref="L14:L17"/>
-    <mergeCell ref="AS10:AS13"/>
-    <mergeCell ref="AT10:AT13"/>
-    <mergeCell ref="AU10:AU13"/>
-    <mergeCell ref="AV10:AV13"/>
-    <mergeCell ref="AW10:AW13"/>
-    <mergeCell ref="AQ10:AQ13"/>
-    <mergeCell ref="AR10:AR13"/>
-    <mergeCell ref="X10:X13"/>
-    <mergeCell ref="Y10:Y13"/>
-    <mergeCell ref="Z10:Z13"/>
-    <mergeCell ref="O10:O13"/>
-    <mergeCell ref="P10:P13"/>
-    <mergeCell ref="Q10:Q13"/>
-    <mergeCell ref="R10:R13"/>
-    <mergeCell ref="S10:S13"/>
-    <mergeCell ref="T10:T13"/>
-    <mergeCell ref="AM10:AM13"/>
-    <mergeCell ref="AN10:AN13"/>
-    <mergeCell ref="AO10:AO13"/>
-    <mergeCell ref="AP10:AP13"/>
-    <mergeCell ref="AG10:AG13"/>
-    <mergeCell ref="AH10:AH13"/>
-    <mergeCell ref="AI10:AI13"/>
-    <mergeCell ref="AJ10:AJ13"/>
-    <mergeCell ref="AK10:AK13"/>
-    <mergeCell ref="AL10:AL13"/>
-    <mergeCell ref="AA10:AA13"/>
-    <mergeCell ref="AB10:AB13"/>
-    <mergeCell ref="AC10:AC13"/>
-    <mergeCell ref="AD10:AD13"/>
-    <mergeCell ref="AE10:AE13"/>
-    <mergeCell ref="AF10:AF13"/>
-    <mergeCell ref="U10:U13"/>
-    <mergeCell ref="V10:V13"/>
-    <mergeCell ref="W10:W13"/>
+  <mergeCells count="192">
+    <mergeCell ref="I6:I9"/>
+    <mergeCell ref="D14:D17"/>
+    <mergeCell ref="F2:F5"/>
+    <mergeCell ref="F6:F9"/>
+    <mergeCell ref="F10:F13"/>
+    <mergeCell ref="F14:F17"/>
+    <mergeCell ref="D2:D5"/>
+    <mergeCell ref="D6:D9"/>
+    <mergeCell ref="D10:D13"/>
+    <mergeCell ref="H2:H5"/>
+    <mergeCell ref="I2:I5"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="C2:C5"/>
+    <mergeCell ref="E2:E5"/>
+    <mergeCell ref="G2:G5"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="C6:C9"/>
+    <mergeCell ref="E6:E9"/>
+    <mergeCell ref="G6:G9"/>
+    <mergeCell ref="H6:H9"/>
+    <mergeCell ref="AT2:AT5"/>
+    <mergeCell ref="AU2:AU5"/>
+    <mergeCell ref="AV2:AV5"/>
+    <mergeCell ref="AK2:AK5"/>
+    <mergeCell ref="AL2:AL5"/>
+    <mergeCell ref="AM2:AM5"/>
+    <mergeCell ref="AN2:AN5"/>
+    <mergeCell ref="AO2:AO5"/>
+    <mergeCell ref="AP2:AP5"/>
+    <mergeCell ref="AQ2:AQ5"/>
+    <mergeCell ref="AR2:AR5"/>
+    <mergeCell ref="AS2:AS5"/>
+    <mergeCell ref="AH2:AH5"/>
+    <mergeCell ref="AI2:AI5"/>
+    <mergeCell ref="AJ2:AJ5"/>
+    <mergeCell ref="Y2:Y5"/>
+    <mergeCell ref="Z2:Z5"/>
+    <mergeCell ref="AA2:AA5"/>
+    <mergeCell ref="AB2:AB5"/>
+    <mergeCell ref="AC2:AC5"/>
+    <mergeCell ref="AD2:AD5"/>
+    <mergeCell ref="J6:J9"/>
+    <mergeCell ref="K6:K9"/>
+    <mergeCell ref="L6:L9"/>
+    <mergeCell ref="M6:M9"/>
+    <mergeCell ref="N6:N9"/>
+    <mergeCell ref="O6:O9"/>
+    <mergeCell ref="AE2:AE5"/>
+    <mergeCell ref="AF2:AF5"/>
+    <mergeCell ref="AG2:AG5"/>
+    <mergeCell ref="V2:V5"/>
+    <mergeCell ref="W2:W5"/>
+    <mergeCell ref="X2:X5"/>
+    <mergeCell ref="N2:N5"/>
+    <mergeCell ref="O2:O5"/>
+    <mergeCell ref="P2:P5"/>
+    <mergeCell ref="Q2:Q5"/>
+    <mergeCell ref="R2:R5"/>
+    <mergeCell ref="S2:S5"/>
+    <mergeCell ref="T2:T5"/>
+    <mergeCell ref="U2:U5"/>
+    <mergeCell ref="L2:L5"/>
+    <mergeCell ref="M2:M5"/>
+    <mergeCell ref="J2:J5"/>
+    <mergeCell ref="K2:K5"/>
+    <mergeCell ref="U6:U9"/>
+    <mergeCell ref="V6:V9"/>
+    <mergeCell ref="W6:W9"/>
+    <mergeCell ref="X6:X9"/>
+    <mergeCell ref="Y6:Y9"/>
+    <mergeCell ref="Z6:Z9"/>
+    <mergeCell ref="P6:P9"/>
+    <mergeCell ref="Q6:Q9"/>
+    <mergeCell ref="R6:R9"/>
+    <mergeCell ref="S6:S9"/>
+    <mergeCell ref="T6:T9"/>
+    <mergeCell ref="AG6:AG9"/>
+    <mergeCell ref="AH6:AH9"/>
+    <mergeCell ref="AI6:AI9"/>
+    <mergeCell ref="AJ6:AJ9"/>
+    <mergeCell ref="AK6:AK9"/>
+    <mergeCell ref="AL6:AL9"/>
+    <mergeCell ref="AA6:AA9"/>
+    <mergeCell ref="AB6:AB9"/>
+    <mergeCell ref="AC6:AC9"/>
+    <mergeCell ref="AD6:AD9"/>
+    <mergeCell ref="AE6:AE9"/>
+    <mergeCell ref="AF6:AF9"/>
+    <mergeCell ref="AS6:AS9"/>
+    <mergeCell ref="AT6:AT9"/>
+    <mergeCell ref="AU6:AU9"/>
+    <mergeCell ref="AV6:AV9"/>
+    <mergeCell ref="AM6:AM9"/>
+    <mergeCell ref="AN6:AN9"/>
+    <mergeCell ref="AO6:AO9"/>
+    <mergeCell ref="AP6:AP9"/>
+    <mergeCell ref="AQ6:AQ9"/>
+    <mergeCell ref="AR6:AR9"/>
     <mergeCell ref="I10:I13"/>
     <mergeCell ref="J10:J13"/>
     <mergeCell ref="K10:K13"/>
@@ -13320,106 +13297,89 @@
     <mergeCell ref="E10:E13"/>
     <mergeCell ref="G10:G13"/>
     <mergeCell ref="H10:H13"/>
-    <mergeCell ref="AT6:AT9"/>
-    <mergeCell ref="AU6:AU9"/>
-    <mergeCell ref="AV6:AV9"/>
-    <mergeCell ref="AW6:AW9"/>
-    <mergeCell ref="AN6:AN9"/>
-    <mergeCell ref="AO6:AO9"/>
-    <mergeCell ref="AP6:AP9"/>
-    <mergeCell ref="AQ6:AQ9"/>
-    <mergeCell ref="AR6:AR9"/>
-    <mergeCell ref="AS6:AS9"/>
-    <mergeCell ref="AH6:AH9"/>
-    <mergeCell ref="AI6:AI9"/>
-    <mergeCell ref="AJ6:AJ9"/>
-    <mergeCell ref="AK6:AK9"/>
-    <mergeCell ref="AL6:AL9"/>
-    <mergeCell ref="AM6:AM9"/>
-    <mergeCell ref="AB6:AB9"/>
-    <mergeCell ref="AC6:AC9"/>
-    <mergeCell ref="AD6:AD9"/>
-    <mergeCell ref="AE6:AE9"/>
-    <mergeCell ref="AF6:AF9"/>
-    <mergeCell ref="AG6:AG9"/>
-    <mergeCell ref="V6:V9"/>
-    <mergeCell ref="W6:W9"/>
-    <mergeCell ref="X6:X9"/>
-    <mergeCell ref="Y6:Y9"/>
-    <mergeCell ref="Z6:Z9"/>
-    <mergeCell ref="AA6:AA9"/>
-    <mergeCell ref="P6:P9"/>
-    <mergeCell ref="Q6:Q9"/>
-    <mergeCell ref="R6:R9"/>
-    <mergeCell ref="S6:S9"/>
-    <mergeCell ref="T6:T9"/>
-    <mergeCell ref="U6:U9"/>
-    <mergeCell ref="J6:J9"/>
-    <mergeCell ref="K6:K9"/>
-    <mergeCell ref="L6:L9"/>
-    <mergeCell ref="M6:M9"/>
-    <mergeCell ref="N6:N9"/>
-    <mergeCell ref="O6:O9"/>
-    <mergeCell ref="AF2:AF5"/>
-    <mergeCell ref="AG2:AG5"/>
-    <mergeCell ref="AH2:AH5"/>
-    <mergeCell ref="AI2:AI5"/>
-    <mergeCell ref="AJ2:AJ5"/>
-    <mergeCell ref="AK2:AK5"/>
-    <mergeCell ref="Z2:Z5"/>
-    <mergeCell ref="AA2:AA5"/>
-    <mergeCell ref="AB2:AB5"/>
-    <mergeCell ref="AC2:AC5"/>
-    <mergeCell ref="AD2:AD5"/>
-    <mergeCell ref="AE2:AE5"/>
-    <mergeCell ref="AU2:AU5"/>
-    <mergeCell ref="AV2:AV5"/>
-    <mergeCell ref="AW2:AW5"/>
-    <mergeCell ref="AL2:AL5"/>
-    <mergeCell ref="AM2:AM5"/>
-    <mergeCell ref="AN2:AN5"/>
-    <mergeCell ref="AO2:AO5"/>
-    <mergeCell ref="AP2:AP5"/>
-    <mergeCell ref="AQ2:AQ5"/>
-    <mergeCell ref="AR2:AR5"/>
-    <mergeCell ref="AS2:AS5"/>
-    <mergeCell ref="AT2:AT5"/>
-    <mergeCell ref="W2:W5"/>
-    <mergeCell ref="X2:X5"/>
-    <mergeCell ref="Y2:Y5"/>
-    <mergeCell ref="N2:N5"/>
-    <mergeCell ref="O2:O5"/>
-    <mergeCell ref="P2:P5"/>
-    <mergeCell ref="Q2:Q5"/>
-    <mergeCell ref="R2:R5"/>
-    <mergeCell ref="S2:S5"/>
-    <mergeCell ref="T2:T5"/>
-    <mergeCell ref="U2:U5"/>
-    <mergeCell ref="V2:V5"/>
-    <mergeCell ref="L2:L5"/>
-    <mergeCell ref="M2:M5"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="C2:C5"/>
-    <mergeCell ref="E2:E5"/>
-    <mergeCell ref="G2:G5"/>
-    <mergeCell ref="B6:B9"/>
-    <mergeCell ref="C6:C9"/>
-    <mergeCell ref="E6:E9"/>
-    <mergeCell ref="G6:G9"/>
-    <mergeCell ref="H6:H9"/>
-    <mergeCell ref="I6:I9"/>
-    <mergeCell ref="D14:D17"/>
-    <mergeCell ref="F2:F5"/>
-    <mergeCell ref="F6:F9"/>
-    <mergeCell ref="F10:F13"/>
-    <mergeCell ref="F14:F17"/>
-    <mergeCell ref="D2:D5"/>
-    <mergeCell ref="D6:D9"/>
-    <mergeCell ref="D10:D13"/>
-    <mergeCell ref="H2:H5"/>
-    <mergeCell ref="I2:I5"/>
-    <mergeCell ref="J2:J5"/>
-    <mergeCell ref="K2:K5"/>
+    <mergeCell ref="O10:O13"/>
+    <mergeCell ref="P10:P13"/>
+    <mergeCell ref="Q10:Q13"/>
+    <mergeCell ref="R10:R13"/>
+    <mergeCell ref="S10:S13"/>
+    <mergeCell ref="AL10:AL13"/>
+    <mergeCell ref="AM10:AM13"/>
+    <mergeCell ref="AN10:AN13"/>
+    <mergeCell ref="AO10:AO13"/>
+    <mergeCell ref="AF10:AF13"/>
+    <mergeCell ref="AG10:AG13"/>
+    <mergeCell ref="AH10:AH13"/>
+    <mergeCell ref="AI10:AI13"/>
+    <mergeCell ref="AJ10:AJ13"/>
+    <mergeCell ref="AK10:AK13"/>
+    <mergeCell ref="Z10:Z13"/>
+    <mergeCell ref="AA10:AA13"/>
+    <mergeCell ref="AB10:AB13"/>
+    <mergeCell ref="AC10:AC13"/>
+    <mergeCell ref="AD10:AD13"/>
+    <mergeCell ref="AE10:AE13"/>
+    <mergeCell ref="T10:T13"/>
+    <mergeCell ref="U10:U13"/>
+    <mergeCell ref="V10:V13"/>
+    <mergeCell ref="AR10:AR13"/>
+    <mergeCell ref="AS10:AS13"/>
+    <mergeCell ref="AT10:AT13"/>
+    <mergeCell ref="AU10:AU13"/>
+    <mergeCell ref="AV10:AV13"/>
+    <mergeCell ref="AP10:AP13"/>
+    <mergeCell ref="AQ10:AQ13"/>
+    <mergeCell ref="W10:W13"/>
+    <mergeCell ref="X10:X13"/>
+    <mergeCell ref="Y10:Y13"/>
+    <mergeCell ref="AC14:AC17"/>
+    <mergeCell ref="AD14:AD17"/>
+    <mergeCell ref="B14:B17"/>
+    <mergeCell ref="C14:C17"/>
+    <mergeCell ref="E14:E17"/>
+    <mergeCell ref="G14:G17"/>
+    <mergeCell ref="H14:H17"/>
+    <mergeCell ref="I14:I17"/>
+    <mergeCell ref="J14:J17"/>
+    <mergeCell ref="K14:K17"/>
+    <mergeCell ref="L14:L17"/>
+    <mergeCell ref="AU14:AU17"/>
+    <mergeCell ref="AV14:AV17"/>
+    <mergeCell ref="AL14:AL17"/>
+    <mergeCell ref="AM14:AM17"/>
+    <mergeCell ref="AN14:AN17"/>
+    <mergeCell ref="AO14:AO17"/>
+    <mergeCell ref="AP14:AP17"/>
+    <mergeCell ref="AQ14:AQ17"/>
+    <mergeCell ref="AF14:AF17"/>
+    <mergeCell ref="AG14:AG17"/>
+    <mergeCell ref="AH14:AH17"/>
+    <mergeCell ref="AI14:AI17"/>
+    <mergeCell ref="AJ14:AJ17"/>
+    <mergeCell ref="AK14:AK17"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="AR14:AR17"/>
+    <mergeCell ref="AS14:AS17"/>
+    <mergeCell ref="AT14:AT17"/>
+    <mergeCell ref="AE14:AE17"/>
+    <mergeCell ref="T14:T17"/>
+    <mergeCell ref="U14:U17"/>
+    <mergeCell ref="V14:V17"/>
+    <mergeCell ref="W14:W17"/>
+    <mergeCell ref="X14:X17"/>
+    <mergeCell ref="Y14:Y17"/>
+    <mergeCell ref="O14:O17"/>
+    <mergeCell ref="P14:P17"/>
+    <mergeCell ref="Q14:Q17"/>
+    <mergeCell ref="R14:R17"/>
+    <mergeCell ref="S14:S17"/>
+    <mergeCell ref="Z14:Z17"/>
+    <mergeCell ref="AA14:AA17"/>
+    <mergeCell ref="AB14:AB17"/>
+    <mergeCell ref="M14:M17"/>
+    <mergeCell ref="N14:N17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -13427,10 +13387,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E53"/>
+  <dimension ref="A1:E51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:BD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11:XFD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13444,7 +13404,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="221" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B1" s="221" t="s">
         <v>301</v>
@@ -13461,7 +13421,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="221" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B2" s="221" t="s">
         <v>306</v>
@@ -13472,7 +13432,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="221" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B3" s="221" t="s">
         <v>307</v>
@@ -13483,7 +13443,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="221" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B4" s="221" t="s">
         <v>308</v>
@@ -13494,7 +13454,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="221" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B5" s="221" t="s">
         <v>309</v>
@@ -13505,7 +13465,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="221" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B6" s="221" t="s">
         <v>310</v>
@@ -13516,7 +13476,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="221" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B7" s="221" t="s">
         <v>311</v>
@@ -13527,7 +13487,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="221" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B8" s="221" t="s">
         <v>312</v>
@@ -13538,7 +13498,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="221" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="B9" s="221" t="s">
         <v>313</v>
@@ -13549,7 +13509,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="221" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B10" s="221" t="s">
         <v>314</v>
@@ -13560,7 +13520,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="221" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B11" s="221" t="s">
         <v>315</v>
@@ -13571,7 +13531,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="221" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B12" s="221" t="s">
         <v>316</v>
@@ -13582,7 +13542,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="221" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B13" s="221" t="s">
         <v>317</v>
@@ -13593,7 +13553,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="221" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B14" s="221" t="s">
         <v>318</v>
@@ -13604,7 +13564,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="221" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B15" s="221" t="s">
         <v>319</v>
@@ -13615,7 +13575,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="221" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B16" s="221" t="s">
         <v>320</v>
@@ -13626,7 +13586,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="221" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B17" s="221" t="s">
         <v>321</v>
@@ -13637,7 +13597,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="221" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B18" s="221" t="s">
         <v>322</v>
@@ -13648,7 +13608,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="221" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B19" s="221" t="s">
         <v>323</v>
@@ -13659,7 +13619,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="221" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B20" s="221" t="s">
         <v>324</v>
@@ -13670,7 +13630,7 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="221" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B21" s="221" t="s">
         <v>325</v>
@@ -13681,7 +13641,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="221" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B22" s="221" t="s">
         <v>326</v>
@@ -13692,7 +13652,7 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="221" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B23" s="221" t="s">
         <v>327</v>
@@ -13703,7 +13663,7 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="221" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B24" s="221" t="s">
         <v>328</v>
@@ -13714,7 +13674,7 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="221" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B25" s="221" t="s">
         <v>329</v>
@@ -13725,7 +13685,7 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="221" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B26" s="221" t="s">
         <v>330</v>
@@ -13736,7 +13696,7 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="221" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B27" s="221" t="s">
         <v>331</v>
@@ -13747,7 +13707,7 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="221" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B28" s="221" t="s">
         <v>332</v>
@@ -13758,7 +13718,7 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="221" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B29" s="221" t="s">
         <v>333</v>
@@ -13769,7 +13729,7 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="221" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B30" s="221" t="s">
         <v>334</v>
@@ -13780,7 +13740,7 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="221" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B31" s="221" t="s">
         <v>335</v>
@@ -13791,7 +13751,7 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="221" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B32" s="221" t="s">
         <v>336</v>
@@ -13802,7 +13762,7 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="221" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B33" s="221" t="s">
         <v>337</v>
@@ -13813,7 +13773,7 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="221" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B34" s="221" t="s">
         <v>338</v>
@@ -13824,7 +13784,7 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="221" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B35" s="221" t="s">
         <v>339</v>
@@ -13835,7 +13795,7 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="221" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B36" s="221" t="s">
         <v>340</v>
@@ -13846,7 +13806,7 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="221" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B37" s="221" t="s">
         <v>341</v>
@@ -13857,7 +13817,7 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="221" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B38" s="221" t="s">
         <v>342</v>
@@ -13868,7 +13828,7 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="221" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B39" s="221" t="s">
         <v>343</v>
@@ -13879,7 +13839,7 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="221" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B40" s="221" t="s">
         <v>344</v>
@@ -13890,10 +13850,10 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="221" t="s">
-        <v>348</v>
+        <v>305</v>
       </c>
       <c r="B41" s="221" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="C41" s="221"/>
       <c r="D41" s="221"/>
@@ -13901,10 +13861,10 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="221" t="s">
+        <v>305</v>
+      </c>
+      <c r="B42" s="221" t="s">
         <v>348</v>
-      </c>
-      <c r="B42" s="221" t="s">
-        <v>346</v>
       </c>
       <c r="C42" s="221"/>
       <c r="D42" s="221"/>
@@ -14008,28 +13968,6 @@
       <c r="C51" s="221"/>
       <c r="D51" s="221"/>
       <c r="E51" s="221"/>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="221" t="s">
-        <v>305</v>
-      </c>
-      <c r="B52" s="221" t="s">
-        <v>358</v>
-      </c>
-      <c r="C52" s="221"/>
-      <c r="D52" s="221"/>
-      <c r="E52" s="221"/>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="221" t="s">
-        <v>305</v>
-      </c>
-      <c r="B53" s="221" t="s">
-        <v>359</v>
-      </c>
-      <c r="C53" s="221"/>
-      <c r="D53" s="221"/>
-      <c r="E53" s="221"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
